--- a/charts_xlsx/kschart.xlsx
+++ b/charts_xlsx/kschart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="543">
   <si>
     <t>Sign Degree: [Planet]</t>
   </si>
@@ -562,7 +562,7 @@
     <t xml:space="preserve">2: [Sun Conj; Moon Semisquare] </t>
   </si>
   <si>
-    <t>4 Aries</t>
+    <t>3 Aries</t>
   </si>
   <si>
     <t xml:space="preserve">4: [Mercury] </t>
@@ -574,10 +574,16 @@
     <t xml:space="preserve">5: [Moon Semisextile; Uranus Square] </t>
   </si>
   <si>
-    <t>8 Aries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8: [Neptune Square] 9: [Saturn Sextile] 10: [Asc Quincunx] 11: [Jupiter Trine_b] </t>
+    <t>6 Aries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8: [Neptune Square] </t>
+  </si>
+  <si>
+    <t>9 Aries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9: [Saturn Sextile] 10: [Asc Quincunx] 11: [Jupiter Trine_b] </t>
   </si>
   <si>
     <t>12 Aries</t>
@@ -586,19 +592,28 @@
     <t xml:space="preserve">13: [Mars Sextile_b] 14: [Sun Semisextile; Mercury Conj; Venus Conj] </t>
   </si>
   <si>
-    <t>16 Aries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: [Moon Sextile] 18: [Pluto Quincunx] </t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20 Aries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: [Moon Semisquare] 21: [Uranus Square] 22: [Asc Opposition; Pluto Quincunx] </t>
+    <t>15 Aries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: [Moon Sextile] </t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>18 Aries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: [Pluto Quincunx] 20: [Moon Semisquare] </t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>21 Aries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: [Uranus Square] 22: [Asc Opposition; Pluto Quincunx] </t>
   </si>
   <si>
     <t>24</t>
@@ -616,22 +631,31 @@
     <t xml:space="preserve">24: [Neptune Square] 25: [Mars Sextile_b; Jupiter Square_b; Saturn Square] </t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>28 Aries</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>27 Aries</t>
   </si>
   <si>
     <t xml:space="preserve">29: [Sun Semisquare] </t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>2 Taurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: [Sun Semisextile; Mercury Semisextile] 34: [Venus Conj] 35: [Moon Sextile; Uranus Trine] </t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>0 Taurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: [Sun Semisextile; Mercury Semisextile] </t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>3 Taurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34: [Venus Conj] 35: [Moon Sextile; Uranus Trine] </t>
   </si>
   <si>
     <t>36</t>
@@ -643,22 +667,31 @@
     <t xml:space="preserve">36: [Mercury Semisextile] 38: [Neptune Trine] </t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>10 Taurus</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>9 Taurus</t>
   </si>
   <si>
     <t xml:space="preserve">40: [Asc Opposition; Pluto Opposition] 41: [Jupiter Square_b; Saturn Square] </t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>14 Taurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44: [Sun Sextile] 46: [Mercury Semisquare] 47: [Sun Semisquare; Moon Square; Mars Semisextile_b] </t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>12 Taurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44: [Sun Sextile] </t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>15 Taurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46: [Mercury Semisquare] 47: [Sun Semisquare; Moon Square; Mars Semisextile_b] </t>
   </si>
   <si>
     <t>48</t>
@@ -667,25 +700,31 @@
     <t>18 Taurus</t>
   </si>
   <si>
-    <t xml:space="preserve">51: [Mars Semisextile_b; Uranus Trine] </t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>22 Taurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52: [Mercury Semisquare; Venus Semisextile] 54: [Neptune Trine] 55: [Saturn Trine] </t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>26 Taurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56: [Venus Semisextile] 57: [Jupiter Sextile_b] 58: [Mercury Sextile] </t>
+    <t>51</t>
+  </si>
+  <si>
+    <t>21 Taurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51: [Mars Semisextile_b; Uranus Trine] 52: [Mercury Semisquare; Venus Semisextile] </t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>24 Taurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54: [Neptune Trine] 55: [Saturn Trine] 56: [Venus Semisextile] </t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>27 Taurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57: [Jupiter Sextile_b] 58: [Mercury Sextile] </t>
   </si>
   <si>
     <t>60</t>
@@ -697,19 +736,28 @@
     <t xml:space="preserve">60: [Pluto Opposition] 62: [Sun Sextile] </t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>4 Gemini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65: [Moon Square] 66: [Venus Semisquare] </t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>8 Gemini</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>3 Gemini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65: [Moon Square] </t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>6 Gemini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66: [Venus Semisquare] </t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>9 Gemini</t>
   </si>
   <si>
     <t xml:space="preserve">69: [Mars Conj; Jupiter Sextile_b] 70: [Mercury Sextile] 71: [Saturn Trine; Uranus Quincunx] </t>
@@ -721,25 +769,34 @@
     <t>12 Gemini</t>
   </si>
   <si>
-    <t xml:space="preserve">72: [Venus Semisquare] 74: [Sun Square; Neptune Quincunx] 75: [Uranus Quincunx] </t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>16 Gemini</t>
+    <t xml:space="preserve">72: [Venus Semisquare] 74: [Sun Square; Neptune Quincunx] </t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>15 Gemini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75: [Uranus Quincunx] 77: [Moon Trine] </t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>18 Gemini</t>
   </si>
   <si>
     <t xml:space="preserve">19: [Mars] </t>
   </si>
   <si>
-    <t xml:space="preserve">77: [Moon Trine] 78: [Venus Sextile; Neptune Quincunx] </t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>20 Gemini</t>
+    <t xml:space="preserve">78: [Venus Sextile; Neptune Quincunx] </t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>21 Gemini</t>
   </si>
   <si>
     <t xml:space="preserve">82: [Asc Trine_b] </t>
@@ -754,22 +811,31 @@
     <t xml:space="preserve">86: [Mercury Square] </t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>28 Gemini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89: [Mars Conj] 90: [Venus Sextile] 91: [Jupiter Semisextile_b; Saturn Quincunx] </t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>2 Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92: [Sun Square] 93: [Uranus Opposition] 95: [Moon Trine; Jupiter Semisextile_b; Saturn Quincunx] </t>
+    <t>87</t>
+  </si>
+  <si>
+    <t>27 Gemini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89: [Mars Conj] </t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>0 Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90: [Venus Sextile] 91: [Jupiter Semisextile_b; Saturn Quincunx] 92: [Sun Square] </t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>3 Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93: [Uranus Opposition] 95: [Moon Trine; Jupiter Semisextile_b; Saturn Quincunx] </t>
   </si>
   <si>
     <t>96</t>
@@ -781,22 +847,31 @@
     <t xml:space="preserve">96: [Neptune Opposition] </t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>10 Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100: [Asc Trine_b] 102: [Mercury Square; Pluto Trine_b] </t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>14 Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104: [Sun Trine] 106: [Venus Square] 107: [Moon Quincunx; Mars Semisextile] </t>
+    <t>99</t>
+  </si>
+  <si>
+    <t>9 Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100: [Asc Trine_b] </t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>12 Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102: [Mercury Square; Pluto Trine_b] 104: [Sun Trine] </t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>15 Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106: [Venus Square] 107: [Moon Quincunx; Mars Semisextile] </t>
   </si>
   <si>
     <t>108</t>
@@ -805,25 +880,31 @@
     <t>18 Cancer</t>
   </si>
   <si>
-    <t xml:space="preserve">111: [Mars Semisextile] </t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>22 Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112: [Asc Square_b] 113: [Jupiter Conj; Saturn Opposition; Uranus Opposition] </t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>26 Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116: [Mercury Trine; Neptune Opposition] 118: [Pluto Trine_b] </t>
+    <t>111</t>
+  </si>
+  <si>
+    <t>21 Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111: [Mars Semisextile] 112: [Asc Square_b] 113: [Jupiter Conj; Saturn Opposition; Uranus Opposition] </t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>24 Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116: [Mercury Trine; Neptune Opposition] </t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>27 Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118: [Pluto Trine_b] </t>
   </si>
   <si>
     <t>120</t>
@@ -832,25 +913,34 @@
     <t>0 Leo</t>
   </si>
   <si>
+    <t xml:space="preserve">121: [Mars Semisquare] 122: [Sun Trine; Venus Square] </t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>3 Leo</t>
+  </si>
+  <si>
     <t xml:space="preserve">3: [Jupiter] </t>
   </si>
   <si>
-    <t xml:space="preserve">121: [Mars Semisquare] 122: [Sun Trine; Venus Square] </t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>4 Leo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125: [Moon Quincunx] 127: [Mars Semisquare] </t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>8 Leo</t>
+    <t xml:space="preserve">125: [Moon Quincunx] </t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>6 Leo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127: [Mars Semisquare] </t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>9 Leo</t>
   </si>
   <si>
     <t xml:space="preserve">130: [Asc Square_b] </t>
@@ -865,19 +955,25 @@
     <t xml:space="preserve">132: [Mercury Trine; Pluto Square_b] 133: [Mars Sextile; Jupiter Conj; Saturn Opposition] 134: [Sun Quincunx] </t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>16 Leo</t>
+    <t>135</t>
+  </si>
+  <si>
+    <t>15 Leo</t>
   </si>
   <si>
     <t xml:space="preserve">136: [Venus Trine] 137: [Moon Opposition] </t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>20 Leo</t>
+    <t>138</t>
+  </si>
+  <si>
+    <t>18 Leo</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>21 Leo</t>
   </si>
   <si>
     <t xml:space="preserve">142: [Asc Sextile_b] </t>
@@ -892,22 +988,31 @@
     <t xml:space="preserve">145: [Mars Sextile] </t>
   </si>
   <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>28 Leo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148: [Pluto Square_b] 151: [Jupiter Semisextile] </t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>2 Virgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152: [Sun Quincunx; Mercury Quincunx; Venus Trine] 155: [Moon Opposition; Jupiter Semisextile; Uranus Trine_b] </t>
+    <t>147</t>
+  </si>
+  <si>
+    <t>27 Leo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148: [Pluto Square_b] </t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>0 Virgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151: [Jupiter Semisextile] 152: [Sun Quincunx; Mercury Quincunx; Venus Trine] </t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>3 Virgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155: [Moon Opposition; Jupiter Semisextile; Uranus Trine_b] </t>
   </si>
   <si>
     <t>156</t>
@@ -919,22 +1024,31 @@
     <t xml:space="preserve">156: [Mercury Quincunx] 158: [Neptune Trine_b] </t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>10 Virgo</t>
+    <t>159</t>
+  </si>
+  <si>
+    <t>9 Virgo</t>
   </si>
   <si>
     <t xml:space="preserve">160: [Asc Sextile_b] 161: [Mars Square] </t>
   </si>
   <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>14 Virgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164: [Sun Opposition; Pluto Sextile_b] 165: [Jupiter Semisquare] </t>
+    <t>162</t>
+  </si>
+  <si>
+    <t>12 Virgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164: [Sun Opposition; Pluto Sextile_b] </t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>15 Virgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165: [Jupiter Semisquare] </t>
   </si>
   <si>
     <t>168</t>
@@ -943,25 +1057,31 @@
     <t>18 Virgo</t>
   </si>
   <si>
-    <t xml:space="preserve">171: [Jupiter Semisquare; Uranus Trine_b] </t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>22 Virgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172: [Asc Semisextile_b; Venus Quincunx] 174: [Mercury Opposition; Neptune Trine_b] 175: [Saturn Trine_b] </t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>26 Virgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176: [Venus Quincunx; Pluto Sextile_b] 177: [Mars Square; Jupiter Sextile] </t>
+    <t>171</t>
+  </si>
+  <si>
+    <t>21 Virgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171: [Jupiter Semisquare; Uranus Trine_b] 172: [Asc Semisextile_b; Venus Quincunx] </t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>24 Virgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174: [Mercury Opposition; Neptune Trine_b] 175: [Saturn Trine_b] 176: [Venus Quincunx; Pluto Sextile_b] </t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>27 Virgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177: [Mars Square; Jupiter Sextile] </t>
   </si>
   <si>
     <t>180</t>
@@ -973,22 +1093,31 @@
     <t xml:space="preserve">182: [Sun Opposition] </t>
   </si>
   <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>4 Libra</t>
+    <t>183</t>
+  </si>
+  <si>
+    <t>3 Libra</t>
   </si>
   <si>
     <t xml:space="preserve">185: [Uranus Square_b] </t>
   </si>
   <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>8 Libra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188: [Neptune Square_b] 189: [Jupiter Sextile] 190: [Asc Semisextile_b] 191: [Mars Trine; Saturn Trine_b] </t>
+    <t>186</t>
+  </si>
+  <si>
+    <t>6 Libra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188: [Neptune Square_b] </t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>9 Libra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189: [Jupiter Sextile] 190: [Asc Semisextile_b] 191: [Mars Trine; Saturn Trine_b] </t>
   </si>
   <si>
     <t>192</t>
@@ -1000,19 +1129,28 @@
     <t xml:space="preserve">194: [Mercury Opposition; Venus Opposition] </t>
   </si>
   <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>16 Libra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197: [Moon Trine_b] 198: [Pluto Semisextile_b] </t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>20 Libra</t>
+    <t>195</t>
+  </si>
+  <si>
+    <t>15 Libra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197: [Moon Trine_b] </t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>18 Libra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198: [Pluto Semisextile_b] </t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>21 Libra</t>
   </si>
   <si>
     <t xml:space="preserve">201: [Uranus Square_b] 202: [Asc Conj; Pluto Semisextile_b] </t>
@@ -1024,13 +1162,22 @@
     <t>24 Libra</t>
   </si>
   <si>
-    <t xml:space="preserve">204: [Neptune Square_b] 205: [Jupiter Square; Saturn Square_b] 207: [Mars Trine] </t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>28 Libra</t>
+    <t xml:space="preserve">204: [Neptune Square_b] 205: [Jupiter Square; Saturn Square_b] </t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>27 Libra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207: [Mars Trine] </t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>0 Scorpio</t>
   </si>
   <si>
     <t xml:space="preserve">1: [Asc] </t>
@@ -1039,10 +1186,10 @@
     <t>None [0]</t>
   </si>
   <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>2 Scorpio</t>
+    <t>213</t>
+  </si>
+  <si>
+    <t>3 Scorpio</t>
   </si>
   <si>
     <t xml:space="preserve">214: [Venus Opposition] 215: [Moon Trine_b] </t>
@@ -1057,22 +1204,31 @@
     <t xml:space="preserve">217: [Uranus Sextile_b] </t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>10 Scorpio</t>
+    <t>219</t>
+  </si>
+  <si>
+    <t>9 Scorpio</t>
   </si>
   <si>
     <t xml:space="preserve">220: [Asc Conj; Neptune Sextile_b; Pluto Conj] 221: [Jupiter Square; Saturn Square_b] </t>
   </si>
   <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>14 Scorpio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224: [Sun Trine_b] 227: [Moon Square_b; Mars Quincunx] </t>
+    <t>222</t>
+  </si>
+  <si>
+    <t>12 Scorpio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224: [Sun Trine_b] </t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>15 Scorpio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227: [Moon Square_b; Mars Quincunx] </t>
   </si>
   <si>
     <t>228</t>
@@ -1087,25 +1243,34 @@
     <t>RULERSHIP [4]</t>
   </si>
   <si>
-    <t xml:space="preserve">229: [Uranus Sextile_b] 231: [Mars Quincunx] </t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>22 Scorpio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232: [Asc Semisextile; Neptune Sextile_b] 235: [Jupiter Trine] </t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>26 Scorpio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236: [Mercury Trine_b] 237: [Saturn Sextile_b] </t>
+    <t xml:space="preserve">229: [Uranus Sextile_b] </t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>21 Scorpio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231: [Mars Quincunx] 232: [Asc Semisextile; Neptune Sextile_b] </t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>24 Scorpio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235: [Jupiter Trine] 236: [Mercury Trine_b] </t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>27 Scorpio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237: [Saturn Sextile_b] </t>
   </si>
   <si>
     <t>240</t>
@@ -1117,19 +1282,28 @@
     <t xml:space="preserve">240: [Pluto Conj] 242: [Sun Trine_b] </t>
   </si>
   <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>4 Sagittarius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245: [Moon Square_b] 247: [Asc Semisquare] </t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>8 Sagittarius</t>
+    <t>243</t>
+  </si>
+  <si>
+    <t>3 Sagittarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245: [Moon Square_b] </t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>6 Sagittarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247: [Asc Semisquare] </t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>9 Sagittarius</t>
   </si>
   <si>
     <t xml:space="preserve">249: [Mars Opposition; Saturn Sextile_b] 250: [Asc Semisextile] 251: [Jupiter Trine; Uranus Semisextile_b] </t>
@@ -1141,22 +1315,31 @@
     <t>12 Sagittarius</t>
   </si>
   <si>
-    <t xml:space="preserve">252: [Mercury Trine_b] 254: [Sun Square_b; Neptune Semisextile_b] 255: [Uranus Semisextile_b] </t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>16 Sagittarius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256: [Venus Trine_b] 257: [Moon Sextile_b] 258: [Neptune Semisextile_b; Pluto Semisextile] </t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>20 Sagittarius</t>
+    <t xml:space="preserve">252: [Mercury Trine_b] 254: [Sun Square_b; Neptune Semisextile_b] </t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>15 Sagittarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255: [Uranus Semisextile_b] 256: [Venus Trine_b] 257: [Moon Sextile_b] </t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>18 Sagittarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">258: [Neptune Semisextile_b; Pluto Semisextile] </t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>21 Sagittarius</t>
   </si>
   <si>
     <t xml:space="preserve">262: [Asc Sextile; Pluto Semisextile] </t>
@@ -1171,22 +1354,31 @@
     <t xml:space="preserve">265: [Asc Semisquare] 266: [Mercury Square_b] </t>
   </si>
   <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>28 Sagittarius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">269: [Mars Opposition] 271: [Jupiter Quincunx; Saturn Semisextile_b] </t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>2 Capricorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">272: [Sun Square_b; Venus Trine_b; Pluto Semisquare] 273: [Uranus Conj] 275: [Moon Sextile_b; Jupiter Quincunx; Saturn Semisextile_b] </t>
+    <t>267</t>
+  </si>
+  <si>
+    <t>27 Sagittarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269: [Mars Opposition] </t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>0 Capricorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">271: [Jupiter Quincunx; Saturn Semisextile_b] 272: [Sun Square_b; Venus Trine_b; Pluto Semisquare] </t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>3 Capricorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273: [Uranus Conj] 275: [Moon Sextile_b; Jupiter Quincunx; Saturn Semisextile_b] </t>
   </si>
   <si>
     <t>276</t>
@@ -1198,22 +1390,31 @@
     <t xml:space="preserve">276: [Neptune Conj] 278: [Pluto Semisquare] </t>
   </si>
   <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>10 Capricorn</t>
+    <t>279</t>
+  </si>
+  <si>
+    <t>9 Capricorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280: [Asc Sextile] </t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>12 Capricorn</t>
   </si>
   <si>
     <t xml:space="preserve">13: [Uranus] </t>
   </si>
   <si>
-    <t xml:space="preserve">280: [Asc Sextile] 282: [Mercury Square_b] </t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>14 Capricorn</t>
+    <t xml:space="preserve">282: [Mercury Square_b] 284: [Sun Sextile_b; Pluto Sextile] </t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>15 Capricorn</t>
   </si>
   <si>
     <t xml:space="preserve">16: [Neptune] </t>
@@ -1222,7 +1423,7 @@
     <t>FALL [1]</t>
   </si>
   <si>
-    <t xml:space="preserve">284: [Sun Sextile_b; Pluto Sextile] 286: [Venus Square_b] 287: [Moon Semisextile_b] </t>
+    <t xml:space="preserve">286: [Venus Square_b] 287: [Moon Semisextile_b] </t>
   </si>
   <si>
     <t>288</t>
@@ -1231,22 +1432,31 @@
     <t>18 Capricorn</t>
   </si>
   <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>22 Capricorn</t>
+    <t>291</t>
+  </si>
+  <si>
+    <t>21 Capricorn</t>
   </si>
   <si>
     <t xml:space="preserve">292: [Asc Square] 293: [Jupiter Opposition; Saturn Conj; Uranus Conj] </t>
   </si>
   <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>26 Capricorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296: [Neptune Conj; Pluto Sextile] 298: [Mercury Sextile_b] </t>
+    <t>294</t>
+  </si>
+  <si>
+    <t>24 Capricorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296: [Neptune Conj; Pluto Sextile] </t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>27 Capricorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">298: [Mercury Sextile_b] </t>
   </si>
   <si>
     <t>300</t>
@@ -1255,25 +1465,31 @@
     <t>0 Aquarius</t>
   </si>
   <si>
+    <t xml:space="preserve">302: [Sun Sextile_b; Venus Square_b] </t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>3 Aquarius</t>
+  </si>
+  <si>
     <t xml:space="preserve">3: [Saturn] </t>
   </si>
   <si>
-    <t xml:space="preserve">302: [Sun Sextile_b; Venus Square_b] </t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>4 Aquarius</t>
-  </si>
-  <si>
     <t xml:space="preserve">305: [Moon Semisextile_b] </t>
   </si>
   <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>8 Aquarius</t>
+    <t>306</t>
+  </si>
+  <si>
+    <t>6 Aquarius</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>9 Aquarius</t>
   </si>
   <si>
     <t xml:space="preserve">310: [Asc Square; Mercury Sextile_b] 311: [Mars Trine_b; Uranus Semisextile] </t>
@@ -1285,22 +1501,31 @@
     <t>12 Aquarius</t>
   </si>
   <si>
-    <t xml:space="preserve">312: [Pluto Square] 313: [Jupiter Opposition; Saturn Conj] 314: [Sun Semisextile_b; Neptune Semisextile] 315: [Uranus Semisextile] </t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>16 Aquarius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317: [Moon Conj] 318: [Venus Sextile_b; Neptune Semisextile] </t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>20 Aquarius</t>
+    <t xml:space="preserve">312: [Pluto Square] 313: [Jupiter Opposition; Saturn Conj] 314: [Sun Semisextile_b; Neptune Semisextile] </t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>15 Aquarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315: [Uranus Semisextile] 317: [Moon Conj] </t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>18 Aquarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318: [Venus Sextile_b; Neptune Semisextile] </t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>21 Aquarius</t>
   </si>
   <si>
     <t xml:space="preserve">322: [Asc Trine] </t>
@@ -1315,25 +1540,34 @@
     <t xml:space="preserve">26: [Moon] </t>
   </si>
   <si>
-    <t xml:space="preserve">325: [Uranus Semisquare] 327: [Mars Trine_b] </t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>28 Aquarius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328: [Neptune Semisquare; Pluto Square] 330: [Venus Sextile_b] 331: [Saturn Semisextile; Uranus Semisquare] </t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>2 Pisces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">332: [Sun Semisextile_b; Mercury Semisextile_b] 334: [Neptune Semisquare] 335: [Moon Conj; Saturn Semisextile] </t>
+    <t xml:space="preserve">325: [Uranus Semisquare] </t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>27 Aquarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327: [Mars Trine_b] 328: [Neptune Semisquare; Pluto Square] </t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>0 Pisces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330: [Venus Sextile_b] 331: [Saturn Semisextile; Uranus Semisquare] 332: [Sun Semisextile_b; Mercury Semisextile_b] </t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>3 Pisces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334: [Neptune Semisquare] 335: [Moon Conj; Saturn Semisextile] </t>
   </si>
   <si>
     <t>336</t>
@@ -1345,22 +1579,31 @@
     <t xml:space="preserve">336: [Mercury Semisextile_b] 337: [Uranus Sextile] </t>
   </si>
   <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>10 Pisces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340: [Asc Trine; Neptune Sextile] 341: [Mars Square_b] 342: [Pluto Trine] </t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>14 Pisces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">344: [Sun Conj] 345: [Saturn Semisquare] 347: [Moon Semisextile] </t>
+    <t>339</t>
+  </si>
+  <si>
+    <t>9 Pisces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340: [Asc Trine; Neptune Sextile] 341: [Mars Square_b] </t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>12 Pisces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342: [Pluto Trine] 344: [Sun Conj] </t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>15 Pisces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345: [Saturn Semisquare] 347: [Moon Semisextile] </t>
   </si>
   <si>
     <t>348</t>
@@ -1369,28 +1612,37 @@
     <t>18 Pisces</t>
   </si>
   <si>
-    <t xml:space="preserve">349: [Uranus Sextile] 351: [Saturn Semisquare] </t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>22 Pisces</t>
+    <t xml:space="preserve">349: [Uranus Sextile] </t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>21 Pisces</t>
   </si>
   <si>
     <t xml:space="preserve">23: [Sun] </t>
   </si>
   <si>
-    <t xml:space="preserve">352: [Asc Quincunx; Venus Semisextile_b; Neptune Sextile] 354: [Mercury Conj] 355: [Jupiter Trine_b] </t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>26 Pisces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">356: [Venus Semisextile_b] 357: [Mars Square_b; Saturn Sextile] 358: [Pluto Trine] </t>
+    <t xml:space="preserve">351: [Saturn Semisquare] 352: [Asc Quincunx; Venus Semisextile_b; Neptune Sextile] </t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>24 Pisces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354: [Mercury Conj] 355: [Jupiter Trine_b] 356: [Venus Semisextile_b] </t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>27 Pisces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">357: [Mars Square_b; Saturn Sextile] 358: [Pluto Trine] </t>
   </si>
 </sst>
 </file>
@@ -1808,7 +2060,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AY91"/>
+  <dimension ref="B1:AY121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2024,7 +2276,7 @@
         <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>70</v>
@@ -2074,7 +2326,7 @@
         <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>70</v>
@@ -2130,22 +2382,19 @@
         <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="J5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>116</v>
+      <c r="M5" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>146</v>
@@ -2153,20 +2402,17 @@
       <c r="P5" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
       <c r="S5">
         <v>-2</v>
       </c>
+      <c r="T5">
+        <v>-1</v>
+      </c>
       <c r="U5">
         <v>3</v>
       </c>
-      <c r="V5">
-        <v>3</v>
-      </c>
-      <c r="W5">
-        <v>5</v>
+      <c r="X5">
+        <v>10</v>
       </c>
       <c r="Z5">
         <v>-5</v>
@@ -2186,7 +2432,7 @@
         <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>48</v>
@@ -2194,6 +2440,9 @@
       <c r="H6" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="K6" s="10" t="s">
         <v>95</v>
       </c>
@@ -2206,15 +2455,15 @@
       <c r="P6" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="Q6" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6">
         <v>-2</v>
       </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
       <c r="V6">
         <v>3</v>
       </c>
@@ -2227,31 +2476,25 @@
       <c r="AA6">
         <v>-5</v>
       </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
       <c r="AG6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:51">
       <c r="D7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>95</v>
@@ -2265,17 +2508,11 @@
       <c r="P7" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="Q7" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="R7">
         <v>1</v>
       </c>
       <c r="S7">
-        <v>5</v>
-      </c>
-      <c r="T7">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="V7">
         <v>3</v>
@@ -2289,37 +2526,25 @@
       <c r="AA7">
         <v>-5</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AG7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:51">
-      <c r="B8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" t="s">
-        <v>198</v>
-      </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>95</v>
@@ -2327,20 +2552,20 @@
       <c r="L8" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>134</v>
+      <c r="O8" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="S8">
-        <v>5</v>
-      </c>
-      <c r="T8">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="V8">
         <v>3</v>
@@ -2348,11 +2573,14 @@
       <c r="W8">
         <v>5</v>
       </c>
-      <c r="X8">
-        <v>-5</v>
-      </c>
-      <c r="Y8">
-        <v>-5</v>
+      <c r="Z8">
+        <v>-5</v>
+      </c>
+      <c r="AA8">
+        <v>-5</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
       </c>
       <c r="AG8">
         <v>7</v>
@@ -2360,16 +2588,16 @@
     </row>
     <row r="9" spans="2:51">
       <c r="D9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>61</v>
@@ -2380,14 +2608,17 @@
       <c r="K9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>134</v>
+      <c r="L9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="R9">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>5</v>
@@ -2398,28 +2629,37 @@
       <c r="V9">
         <v>3</v>
       </c>
-      <c r="X9">
-        <v>-5</v>
-      </c>
-      <c r="Y9">
-        <v>-5</v>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>-5</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
       </c>
       <c r="AG9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:51">
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" t="s">
+        <v>203</v>
+      </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>61</v>
@@ -2427,23 +2667,20 @@
       <c r="I10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="K10" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="L10" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="M10" s="6" t="s">
         <v>127</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="R10">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>5</v>
@@ -2451,20 +2688,17 @@
       <c r="T10">
         <v>-10</v>
       </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
       <c r="V10">
         <v>3</v>
       </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
       <c r="X10">
         <v>-5</v>
       </c>
       <c r="Y10">
         <v>-5</v>
-      </c>
-      <c r="Z10">
-        <v>10</v>
       </c>
       <c r="AG10">
         <v>9</v>
@@ -2472,49 +2706,49 @@
     </row>
     <row r="11" spans="2:51">
       <c r="D11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="K11" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="M11" s="6" t="s">
         <v>127</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="O11" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="R11">
         <v>-2</v>
       </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
       <c r="T11">
         <v>-10</v>
       </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
       <c r="X11">
         <v>-5</v>
       </c>
       <c r="Y11">
         <v>-5</v>
-      </c>
-      <c r="Z11">
-        <v>10</v>
-      </c>
-      <c r="AA11">
-        <v>10</v>
       </c>
       <c r="AG11">
         <v>10</v>
@@ -2522,49 +2756,55 @@
     </row>
     <row r="12" spans="2:51">
       <c r="D12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="M12" s="6" t="s">
         <v>127</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="R12">
         <v>-2</v>
       </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>-10</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
       <c r="X12">
         <v>-5</v>
       </c>
       <c r="Y12">
         <v>-5</v>
-      </c>
-      <c r="Z12">
-        <v>10</v>
-      </c>
-      <c r="AA12">
-        <v>10</v>
-      </c>
-      <c r="AB12">
-        <v>-10</v>
       </c>
       <c r="AG12">
         <v>11</v>
@@ -2572,55 +2812,61 @@
     </row>
     <row r="13" spans="2:51">
       <c r="D13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>117</v>
+        <v>84</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="R13">
         <v>-2</v>
       </c>
       <c r="S13">
-        <v>-5</v>
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>-10</v>
       </c>
       <c r="U13">
-        <v>-2</v>
-      </c>
-      <c r="W13">
         <v>1</v>
       </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>-5</v>
+      </c>
+      <c r="Y13">
+        <v>-5</v>
+      </c>
       <c r="Z13">
         <v>10</v>
-      </c>
-      <c r="AA13">
-        <v>10</v>
-      </c>
-      <c r="AB13">
-        <v>-10</v>
       </c>
       <c r="AG13">
         <v>12</v>
@@ -2628,25 +2874,25 @@
     </row>
     <row r="14" spans="2:51">
       <c r="D14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>117</v>
+        <v>58</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>147</v>
@@ -2654,29 +2900,23 @@
       <c r="P14" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="Q14" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="R14">
-        <v>5</v>
-      </c>
-      <c r="S14">
-        <v>-5</v>
-      </c>
-      <c r="U14">
         <v>-2</v>
       </c>
-      <c r="W14">
-        <v>1</v>
+      <c r="T14">
+        <v>-10</v>
+      </c>
+      <c r="X14">
+        <v>-5</v>
+      </c>
+      <c r="Y14">
+        <v>-5</v>
       </c>
       <c r="Z14">
         <v>10</v>
       </c>
       <c r="AA14">
         <v>10</v>
-      </c>
-      <c r="AB14">
-        <v>-10</v>
       </c>
       <c r="AG14">
         <v>13</v>
@@ -2684,25 +2924,28 @@
     </row>
     <row r="15" spans="2:51">
       <c r="D15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>96</v>
+        <v>58</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>159</v>
@@ -2711,15 +2954,18 @@
         <v>173</v>
       </c>
       <c r="R15">
-        <v>5</v>
-      </c>
-      <c r="S15">
-        <v>-5</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
+        <v>-2</v>
+      </c>
+      <c r="T15">
+        <v>-10</v>
+      </c>
+      <c r="X15">
+        <v>-5</v>
       </c>
       <c r="Y15">
+        <v>-5</v>
+      </c>
+      <c r="Z15">
         <v>10</v>
       </c>
       <c r="AA15">
@@ -2734,45 +2980,33 @@
     </row>
     <row r="16" spans="2:51">
       <c r="D16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>135</v>
+        <v>58</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>173</v>
       </c>
       <c r="R16">
-        <v>5</v>
-      </c>
-      <c r="S16">
-        <v>-5</v>
-      </c>
-      <c r="U16">
-        <v>5</v>
-      </c>
-      <c r="X16">
-        <v>5</v>
-      </c>
-      <c r="Y16">
+        <v>-2</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
         <v>10</v>
       </c>
       <c r="AB16">
@@ -2784,87 +3018,108 @@
     </row>
     <row r="17" spans="2:33">
       <c r="D17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>135</v>
+        <v>94</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="R17">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="S17">
         <v>-5</v>
       </c>
       <c r="U17">
-        <v>5</v>
-      </c>
-      <c r="X17">
-        <v>5</v>
-      </c>
-      <c r="Y17">
-        <v>10</v>
+        <v>-2</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
+      <c r="AA17">
+        <v>10</v>
+      </c>
+      <c r="AB17">
+        <v>-10</v>
       </c>
       <c r="AG17">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:33">
-      <c r="D18" t="s">
-        <v>229</v>
-      </c>
       <c r="E18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F18" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>135</v>
+        <v>94</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
       </c>
       <c r="S18">
         <v>-5</v>
       </c>
       <c r="U18">
-        <v>5</v>
-      </c>
-      <c r="V18">
         <v>-2</v>
       </c>
-      <c r="X18">
-        <v>5</v>
-      </c>
-      <c r="Y18">
-        <v>10</v>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>10</v>
+      </c>
+      <c r="AA18">
+        <v>10</v>
+      </c>
+      <c r="AB18">
+        <v>-10</v>
       </c>
       <c r="AG18">
         <v>17</v>
@@ -2872,49 +3127,49 @@
     </row>
     <row r="19" spans="2:33">
       <c r="D19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F19" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>148</v>
+        <v>96</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>-5</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="V19">
-        <v>-2</v>
-      </c>
-      <c r="W19">
-        <v>3</v>
-      </c>
-      <c r="X19">
-        <v>5</v>
-      </c>
-      <c r="Y19">
-        <v>10</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>10</v>
+      </c>
+      <c r="AB19">
+        <v>-10</v>
       </c>
       <c r="AG19">
         <v>18</v>
@@ -2922,87 +3177,93 @@
     </row>
     <row r="20" spans="2:33">
       <c r="D20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>160</v>
+        <v>49</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="R20">
-        <v>-5</v>
-      </c>
-      <c r="W20">
-        <v>3</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <v>-5</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+      <c r="AB20">
+        <v>-10</v>
       </c>
       <c r="AG20">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:33">
-      <c r="B21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" t="s">
-        <v>184</v>
-      </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>160</v>
+        <v>62</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="R21">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>10</v>
-      </c>
-      <c r="V21">
-        <v>5</v>
-      </c>
-      <c r="W21">
-        <v>3</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
+        <v>-5</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+      <c r="X21">
+        <v>5</v>
+      </c>
+      <c r="Y21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
+        <v>-10</v>
       </c>
       <c r="AG21">
         <v>20</v>
@@ -3010,43 +3271,43 @@
     </row>
     <row r="22" spans="2:33">
       <c r="D22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>107</v>
+        <v>62</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="R22">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>10</v>
-      </c>
-      <c r="T22">
-        <v>10</v>
-      </c>
-      <c r="V22">
-        <v>5</v>
-      </c>
-      <c r="W22">
-        <v>3</v>
+        <v>-5</v>
+      </c>
+      <c r="U22">
+        <v>5</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
       </c>
       <c r="AG22">
         <v>21</v>
@@ -3054,49 +3315,37 @@
     </row>
     <row r="23" spans="2:33">
       <c r="D23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="R23">
-        <v>-5</v>
+        <v>85</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="S23">
-        <v>10</v>
-      </c>
-      <c r="T23">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="U23">
-        <v>-5</v>
-      </c>
-      <c r="V23">
-        <v>5</v>
-      </c>
-      <c r="W23">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
       </c>
       <c r="AG23">
         <v>22</v>
@@ -3104,61 +3353,37 @@
     </row>
     <row r="24" spans="2:33">
       <c r="D24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F24" t="s">
-        <v>246</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="R24">
-        <v>-5</v>
-      </c>
-      <c r="S24">
-        <v>10</v>
-      </c>
-      <c r="T24">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="U24">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="V24">
-        <v>5</v>
-      </c>
-      <c r="W24">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AG24">
         <v>23</v>
@@ -3166,49 +3391,43 @@
     </row>
     <row r="25" spans="2:33">
       <c r="D25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>129</v>
+        <v>85</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="S25">
-        <v>10</v>
-      </c>
-      <c r="T25">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="U25">
-        <v>-5</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>-2</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
       </c>
       <c r="Y25">
+        <v>10</v>
+      </c>
+      <c r="Z25">
         <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>-10</v>
       </c>
       <c r="AG25">
         <v>24</v>
@@ -3216,37 +3435,37 @@
     </row>
     <row r="26" spans="2:33">
       <c r="D26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>86</v>
+        <v>249</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="T26">
-        <v>10</v>
-      </c>
-      <c r="U26">
-        <v>-5</v>
+        <v>160</v>
+      </c>
+      <c r="R26">
+        <v>-5</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
       </c>
       <c r="Z26">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="AG26">
         <v>25</v>
@@ -3254,93 +3473,81 @@
     </row>
     <row r="27" spans="2:33">
       <c r="D27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>149</v>
+        <v>252</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="U27">
-        <v>-5</v>
-      </c>
-      <c r="Z27">
-        <v>-10</v>
+        <v>160</v>
+      </c>
+      <c r="R27">
+        <v>-5</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
       </c>
       <c r="AA27">
-        <v>-10</v>
-      </c>
-      <c r="AB27">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AG27">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:33">
+      <c r="B28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="R28">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="S28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V28">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>-10</v>
-      </c>
-      <c r="AA28">
-        <v>-10</v>
-      </c>
-      <c r="AB28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AG28">
         <v>27</v>
@@ -3348,55 +3555,43 @@
     </row>
     <row r="29" spans="2:33">
       <c r="D29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="P29" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="S29">
-        <v>-1</v>
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
       </c>
       <c r="V29">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="Z29">
-        <v>-10</v>
-      </c>
-      <c r="AA29">
-        <v>-10</v>
-      </c>
-      <c r="AB29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AG29">
         <v>28</v>
@@ -3404,67 +3599,49 @@
     </row>
     <row r="30" spans="2:33">
       <c r="D30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>174</v>
+        <v>97</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="R30">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="U30">
         <v>-5</v>
       </c>
       <c r="V30">
-        <v>-5</v>
-      </c>
-      <c r="X30">
+        <v>5</v>
+      </c>
+      <c r="W30">
         <v>3</v>
-      </c>
-      <c r="Y30">
-        <v>-10</v>
-      </c>
-      <c r="Z30">
-        <v>-10</v>
-      </c>
-      <c r="AA30">
-        <v>-10</v>
-      </c>
-      <c r="AB30">
-        <v>10</v>
       </c>
       <c r="AG30">
         <v>29</v>
@@ -3472,1636 +3649,1636 @@
     </row>
     <row r="31" spans="2:33">
       <c r="D31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>174</v>
+        <v>97</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="R31">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="S31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T31">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="U31">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="V31">
-        <v>-5</v>
-      </c>
-      <c r="X31">
+        <v>5</v>
+      </c>
+      <c r="W31">
         <v>3</v>
-      </c>
-      <c r="Y31">
-        <v>-10</v>
-      </c>
-      <c r="AB31">
-        <v>10</v>
       </c>
       <c r="AG31">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C32" t="s">
-        <v>184</v>
-      </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R32">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32">
+        <v>-5</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
         <v>-1</v>
-      </c>
-      <c r="T32">
-        <v>-5</v>
-      </c>
-      <c r="U32">
-        <v>10</v>
-      </c>
-      <c r="V32">
-        <v>-5</v>
-      </c>
-      <c r="W32">
-        <v>-2</v>
-      </c>
-      <c r="X32">
-        <v>3</v>
-      </c>
-      <c r="Y32">
-        <v>-10</v>
       </c>
       <c r="AG32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="4:33">
+    <row r="33" spans="2:33">
       <c r="D33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E33" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="U33">
+        <v>-5</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
         <v>-1</v>
       </c>
-      <c r="T33">
-        <v>-5</v>
-      </c>
-      <c r="U33">
-        <v>10</v>
-      </c>
-      <c r="W33">
-        <v>-2</v>
-      </c>
-      <c r="X33">
-        <v>3</v>
-      </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-10</v>
       </c>
       <c r="AG33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="4:33">
+    <row r="34" spans="2:33">
       <c r="D34" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>137</v>
+        <v>86</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="T34">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="U34">
-        <v>10</v>
-      </c>
-      <c r="X34">
-        <v>3</v>
-      </c>
-      <c r="Y34">
+        <v>-5</v>
+      </c>
+      <c r="Z34">
+        <v>-10</v>
+      </c>
+      <c r="AA34">
         <v>-10</v>
       </c>
       <c r="AG34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="4:33">
+    <row r="35" spans="2:33">
       <c r="D35" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q35" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="R35">
-        <v>-1</v>
-      </c>
-      <c r="W35">
-        <v>5</v>
-      </c>
-      <c r="X35">
-        <v>3</v>
-      </c>
-      <c r="Y35">
+        <v>277</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="U35">
+        <v>-5</v>
+      </c>
+      <c r="Z35">
         <v>-10</v>
       </c>
-      <c r="AB35">
-        <v>-5</v>
+      <c r="AA35">
+        <v>-10</v>
       </c>
       <c r="AG35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="4:33">
+    <row r="36" spans="2:33">
       <c r="D36" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F36" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>109</v>
+        <v>51</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R36">
-        <v>-1</v>
-      </c>
-      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="Z36">
         <v>-10</v>
       </c>
-      <c r="V36">
-        <v>10</v>
-      </c>
-      <c r="W36">
-        <v>5</v>
+      <c r="AA36">
+        <v>-10</v>
       </c>
       <c r="AB36">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="AG36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="4:33">
+    <row r="37" spans="2:33">
       <c r="D37" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E37" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="Q37" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R37">
+        <v>10</v>
+      </c>
+      <c r="S37">
         <v>-1</v>
       </c>
-      <c r="S37">
+      <c r="V37">
+        <v>-5</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
         <v>-10</v>
       </c>
-      <c r="T37">
-        <v>5</v>
-      </c>
-      <c r="V37">
-        <v>10</v>
-      </c>
-      <c r="W37">
-        <v>5</v>
+      <c r="AA37">
+        <v>-10</v>
       </c>
       <c r="AB37">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="AG37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="4:33">
-      <c r="D38" t="s">
-        <v>291</v>
-      </c>
+    <row r="38" spans="2:33">
       <c r="E38" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F38" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38">
         <v>-1</v>
       </c>
-      <c r="S38">
+      <c r="V38">
+        <v>-5</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
         <v>-10</v>
       </c>
-      <c r="T38">
-        <v>5</v>
-      </c>
-      <c r="V38">
-        <v>10</v>
-      </c>
-      <c r="W38">
-        <v>5</v>
+      <c r="AA38">
+        <v>-10</v>
       </c>
       <c r="AB38">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="AG38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="4:33">
+    <row r="39" spans="2:33">
       <c r="D39" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q39" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
         <v>-1</v>
       </c>
-      <c r="S39">
+      <c r="T39">
+        <v>-5</v>
+      </c>
+      <c r="V39">
+        <v>-5</v>
+      </c>
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39">
         <v>-10</v>
       </c>
-      <c r="T39">
-        <v>5</v>
-      </c>
-      <c r="V39">
-        <v>10</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
+      <c r="Z39">
+        <v>-10</v>
+      </c>
+      <c r="AA39">
+        <v>-10</v>
+      </c>
+      <c r="AB39">
+        <v>10</v>
       </c>
       <c r="AG39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="4:33">
+    <row r="40" spans="2:33">
       <c r="D40" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E40" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>150</v>
+        <v>119</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="R40">
+        <v>10</v>
       </c>
       <c r="S40">
+        <v>-1</v>
+      </c>
+      <c r="T40">
+        <v>-5</v>
+      </c>
+      <c r="U40">
+        <v>10</v>
+      </c>
+      <c r="V40">
+        <v>-5</v>
+      </c>
+      <c r="X40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
         <v>-10</v>
       </c>
-      <c r="T40">
-        <v>5</v>
-      </c>
-      <c r="U40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Z40">
+      <c r="AA40">
+        <v>-10</v>
+      </c>
+      <c r="AB40">
         <v>10</v>
       </c>
       <c r="AG40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="4:33">
+    <row r="41" spans="2:33">
       <c r="D41" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="P41" s="9" t="s">
-        <v>162</v>
+        <v>79</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q41" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>-1</v>
       </c>
       <c r="T41">
-        <v>5</v>
-      </c>
-      <c r="Z41">
-        <v>10</v>
-      </c>
-      <c r="AA41">
+        <v>-5</v>
+      </c>
+      <c r="U41">
+        <v>10</v>
+      </c>
+      <c r="V41">
+        <v>-5</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>-10</v>
+      </c>
+      <c r="AB41">
         <v>10</v>
       </c>
       <c r="AG41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="4:33">
+    <row r="42" spans="2:33">
       <c r="D42" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E42" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
-        <v>301</v>
+        <v>297</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="P42" s="9" t="s">
-        <v>162</v>
+        <v>118</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>-1</v>
+      </c>
+      <c r="T42">
+        <v>-5</v>
+      </c>
+      <c r="U42">
+        <v>10</v>
+      </c>
+      <c r="V42">
+        <v>-5</v>
       </c>
       <c r="W42">
-        <v>-5</v>
-      </c>
-      <c r="Z42">
-        <v>10</v>
-      </c>
-      <c r="AA42">
-        <v>10</v>
+        <v>-2</v>
+      </c>
+      <c r="X42">
+        <v>3</v>
+      </c>
+      <c r="Y42">
+        <v>-10</v>
       </c>
       <c r="AG42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="4:33">
+    <row r="43" spans="2:33">
+      <c r="B43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" t="s">
+        <v>184</v>
+      </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E43" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>53</v>
+        <v>300</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="P43" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q43" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="R43">
+        <v>119</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="S43">
+        <v>-1</v>
+      </c>
+      <c r="T43">
+        <v>-5</v>
+      </c>
+      <c r="U43">
+        <v>10</v>
+      </c>
+      <c r="W43">
+        <v>-2</v>
+      </c>
+      <c r="X43">
+        <v>3</v>
+      </c>
+      <c r="Y43">
         <v>-10</v>
-      </c>
-      <c r="W43">
-        <v>-5</v>
-      </c>
-      <c r="X43">
-        <v>-2</v>
-      </c>
-      <c r="Z43">
-        <v>10</v>
-      </c>
-      <c r="AA43">
-        <v>10</v>
-      </c>
-      <c r="AB43">
-        <v>5</v>
       </c>
       <c r="AG43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="4:33">
+    <row r="44" spans="2:33">
       <c r="D44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E44" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>53</v>
+        <v>304</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="P44" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q44" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="R44">
+        <v>119</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T44">
+        <v>-5</v>
+      </c>
+      <c r="U44">
+        <v>10</v>
+      </c>
+      <c r="W44">
+        <v>-2</v>
+      </c>
+      <c r="X44">
+        <v>3</v>
+      </c>
+      <c r="Y44">
         <v>-10</v>
-      </c>
-      <c r="W44">
-        <v>-5</v>
-      </c>
-      <c r="X44">
-        <v>-2</v>
-      </c>
-      <c r="Z44">
-        <v>10</v>
-      </c>
-      <c r="AA44">
-        <v>10</v>
-      </c>
-      <c r="AB44">
-        <v>5</v>
       </c>
       <c r="AG44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="4:33">
+    <row r="45" spans="2:33">
       <c r="D45" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E45" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F45" t="s">
-        <v>310</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>110</v>
+        <v>87</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P45" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="R45">
+        <v>137</v>
+      </c>
+      <c r="T45">
+        <v>-5</v>
+      </c>
+      <c r="U45">
+        <v>10</v>
+      </c>
+      <c r="X45">
+        <v>3</v>
+      </c>
+      <c r="Y45">
         <v>-10</v>
-      </c>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="U45">
-        <v>-10</v>
-      </c>
-      <c r="V45">
-        <v>-1</v>
-      </c>
-      <c r="W45">
-        <v>-5</v>
-      </c>
-      <c r="Y45">
-        <v>10</v>
-      </c>
-      <c r="AA45">
-        <v>10</v>
-      </c>
-      <c r="AB45">
-        <v>5</v>
       </c>
       <c r="AG45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="4:33">
+    <row r="46" spans="2:33">
       <c r="D46" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="R46">
+        <v>-1</v>
+      </c>
+      <c r="W46">
+        <v>5</v>
+      </c>
+      <c r="X46">
+        <v>3</v>
+      </c>
+      <c r="Y46">
         <v>-10</v>
       </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <v>-10</v>
-      </c>
-      <c r="W46">
-        <v>-5</v>
-      </c>
-      <c r="X46">
-        <v>5</v>
-      </c>
-      <c r="Y46">
-        <v>10</v>
+      <c r="AB46">
+        <v>-5</v>
       </c>
       <c r="AG46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="4:33">
+    <row r="47" spans="2:33">
       <c r="D47" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E47" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>138</v>
+        <v>52</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q47" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="R47">
+        <v>-1</v>
+      </c>
+      <c r="S47">
         <v>-10</v>
       </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
-      <c r="U47">
-        <v>-10</v>
-      </c>
-      <c r="X47">
-        <v>5</v>
-      </c>
-      <c r="Y47">
-        <v>10</v>
+      <c r="V47">
+        <v>10</v>
+      </c>
+      <c r="W47">
+        <v>5</v>
+      </c>
+      <c r="AB47">
+        <v>-5</v>
       </c>
       <c r="AG47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="4:33">
-      <c r="D48" t="s">
-        <v>321</v>
-      </c>
+    <row r="48" spans="2:33">
       <c r="E48" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F48" t="s">
-        <v>319</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="T48">
-        <v>1</v>
-      </c>
-      <c r="U48">
+        <v>316</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q48" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="R48">
+        <v>-1</v>
+      </c>
+      <c r="S48">
         <v>-10</v>
       </c>
-      <c r="X48">
-        <v>5</v>
-      </c>
-      <c r="Y48">
-        <v>10</v>
-      </c>
-      <c r="Z48">
+      <c r="V48">
+        <v>10</v>
+      </c>
+      <c r="W48">
+        <v>5</v>
+      </c>
+      <c r="AB48">
         <v>-5</v>
       </c>
       <c r="AG48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:33">
+    <row r="49" spans="4:33">
       <c r="D49" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E49" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F49" t="s">
-        <v>322</v>
+        <v>318</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>163</v>
+        <v>109</v>
+      </c>
+      <c r="Q49" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="R49">
+        <v>-1</v>
+      </c>
+      <c r="S49">
+        <v>-10</v>
       </c>
       <c r="T49">
-        <v>1</v>
-      </c>
-      <c r="U49">
-        <v>-10</v>
+        <v>5</v>
+      </c>
+      <c r="V49">
+        <v>10</v>
       </c>
       <c r="W49">
-        <v>10</v>
-      </c>
-      <c r="X49">
-        <v>5</v>
-      </c>
-      <c r="Y49">
-        <v>10</v>
-      </c>
-      <c r="Z49">
-        <v>-5</v>
-      </c>
-      <c r="AA49">
+        <v>5</v>
+      </c>
+      <c r="AB49">
         <v>-5</v>
       </c>
       <c r="AG49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:33">
+    <row r="50" spans="4:33">
       <c r="D50" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E50" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F50" t="s">
-        <v>325</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>89</v>
+        <v>321</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="U50">
+        <v>109</v>
+      </c>
+      <c r="Q50" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="R50">
+        <v>-1</v>
+      </c>
+      <c r="S50">
         <v>-10</v>
       </c>
+      <c r="T50">
+        <v>5</v>
+      </c>
       <c r="V50">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="W50">
-        <v>10</v>
-      </c>
-      <c r="Z50">
-        <v>-5</v>
-      </c>
-      <c r="AA50">
+        <v>5</v>
+      </c>
+      <c r="AB50">
         <v>-5</v>
       </c>
       <c r="AG50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:33">
+    <row r="51" spans="4:33">
       <c r="D51" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E51" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F51" t="s">
-        <v>328</v>
+        <v>324</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="P51" s="9" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="Q51" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="R51">
+        <v>-1</v>
       </c>
       <c r="S51">
-        <v>10</v>
+        <v>-10</v>
+      </c>
+      <c r="T51">
+        <v>5</v>
       </c>
       <c r="V51">
-        <v>-10</v>
-      </c>
-      <c r="W51">
-        <v>10</v>
-      </c>
-      <c r="Z51">
-        <v>-5</v>
-      </c>
-      <c r="AA51">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="AG51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:33">
+    <row r="52" spans="4:33">
       <c r="D52" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E52" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F52" t="s">
-        <v>331</v>
+        <v>327</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="P52" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q52" s="12" t="s">
-        <v>177</v>
+        <v>99</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="R52">
+        <v>-1</v>
       </c>
       <c r="S52">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="U52">
+        <v>-1</v>
       </c>
       <c r="V52">
-        <v>-10</v>
-      </c>
-      <c r="W52">
-        <v>10</v>
-      </c>
-      <c r="Z52">
-        <v>-5</v>
-      </c>
-      <c r="AA52">
-        <v>-5</v>
-      </c>
-      <c r="AB52">
+        <v>10</v>
+      </c>
+      <c r="X52">
         <v>1</v>
       </c>
       <c r="AG52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:33">
+    <row r="53" spans="4:33">
       <c r="D53" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E53" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F53" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>111</v>
+        <v>80</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="S53">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T53">
-        <v>3</v>
-      </c>
-      <c r="V53">
-        <v>-10</v>
-      </c>
-      <c r="W53">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="U53">
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-5</v>
-      </c>
-      <c r="Y53">
-        <v>-5</v>
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>10</v>
       </c>
       <c r="AG53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:33">
-      <c r="B54" t="s">
-        <v>339</v>
-      </c>
-      <c r="C54" t="s">
-        <v>340</v>
+    <row r="54" spans="4:33">
+      <c r="D54" t="s">
+        <v>335</v>
       </c>
       <c r="E54" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F54" t="s">
-        <v>337</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>66</v>
+        <v>333</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S54">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="T54">
-        <v>3</v>
-      </c>
-      <c r="V54">
-        <v>-10</v>
-      </c>
-      <c r="X54">
-        <v>-5</v>
-      </c>
-      <c r="Y54">
-        <v>-5</v>
+        <v>5</v>
+      </c>
+      <c r="Z54">
+        <v>10</v>
+      </c>
+      <c r="AA54">
+        <v>10</v>
       </c>
       <c r="AG54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:33">
+    <row r="55" spans="4:33">
       <c r="D55" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E55" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F55" t="s">
-        <v>341</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>66</v>
+        <v>336</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="S55">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="T55">
-        <v>3</v>
-      </c>
-      <c r="V55">
-        <v>-10</v>
-      </c>
-      <c r="X55">
-        <v>-5</v>
-      </c>
-      <c r="Y55">
-        <v>-5</v>
+        <v>5</v>
+      </c>
+      <c r="W55">
+        <v>-5</v>
+      </c>
+      <c r="Z55">
+        <v>10</v>
+      </c>
+      <c r="AA55">
+        <v>10</v>
       </c>
       <c r="AG55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:33">
+    <row r="56" spans="4:33">
       <c r="D56" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E56" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F56" t="s">
-        <v>344</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>139</v>
+        <v>339</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="T56">
-        <v>3</v>
-      </c>
-      <c r="X56">
-        <v>-5</v>
-      </c>
-      <c r="Y56">
+        <v>150</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q56" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="R56">
+        <v>-10</v>
+      </c>
+      <c r="W56">
         <v>-5</v>
       </c>
       <c r="Z56">
+        <v>10</v>
+      </c>
+      <c r="AA56">
+        <v>10</v>
+      </c>
+      <c r="AB56">
         <v>5</v>
       </c>
       <c r="AG56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:33">
+    <row r="57" spans="4:33">
       <c r="D57" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E57" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F57" t="s">
-        <v>347</v>
+        <v>342</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q57" s="12" t="s">
-        <v>167</v>
+        <v>176</v>
+      </c>
+      <c r="R57">
+        <v>-10</v>
+      </c>
+      <c r="W57">
+        <v>-5</v>
       </c>
       <c r="X57">
-        <v>-5</v>
-      </c>
-      <c r="Y57">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="Z57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:33">
-      <c r="D58" t="s">
-        <v>352</v>
-      </c>
+    <row r="58" spans="4:33">
       <c r="E58" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F58" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="R58">
-        <v>10</v>
-      </c>
-      <c r="S58">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>-5</v>
+      </c>
+      <c r="X58">
+        <v>-2</v>
       </c>
       <c r="Z58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:33">
-      <c r="B59" t="s">
-        <v>355</v>
-      </c>
-      <c r="C59" t="s">
-        <v>356</v>
-      </c>
+    <row r="59" spans="4:33">
       <c r="D59" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E59" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F59" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q59" s="12" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="R59">
-        <v>10</v>
-      </c>
-      <c r="S59">
-        <v>-5</v>
+        <v>-10</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>-1</v>
       </c>
       <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AA59">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:33">
+    <row r="60" spans="4:33">
       <c r="D60" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E60" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F60" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>123</v>
+        <v>81</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="Q60" s="12" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="R60">
-        <v>10</v>
-      </c>
-      <c r="S60">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="T60">
         <v>1</v>
       </c>
-      <c r="X60">
+      <c r="U60">
+        <v>-10</v>
+      </c>
+      <c r="V60">
+        <v>-1</v>
+      </c>
+      <c r="W60">
+        <v>-5</v>
+      </c>
+      <c r="Y60">
         <v>10</v>
       </c>
       <c r="AB60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:33">
+    <row r="61" spans="4:33">
       <c r="D61" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E61" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F61" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q61" s="12" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="R61">
-        <v>10</v>
-      </c>
-      <c r="S61">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="U61">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="X61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y61">
-        <v>5</v>
-      </c>
-      <c r="AB61">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AG61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:33">
+    <row r="62" spans="4:33">
       <c r="D62" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E62" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F62" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R62">
-        <v>10</v>
-      </c>
-      <c r="S62">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="T62">
         <v>1</v>
       </c>
       <c r="U62">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="X62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AG62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:33">
+    <row r="63" spans="4:33">
       <c r="D63" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E63" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F63" t="s">
-        <v>367</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="S63">
-        <v>-5</v>
+        <v>138</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="T63">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="U63">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="X63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y63">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="Z63">
+        <v>-5</v>
       </c>
       <c r="AG63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:33">
+    <row r="64" spans="4:33">
       <c r="D64" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E64" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F64" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="P64" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="T64">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="U64">
-        <v>10</v>
-      </c>
-      <c r="W64">
         <v>-10</v>
       </c>
       <c r="X64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z64">
-        <v>1</v>
+        <v>-5</v>
+      </c>
+      <c r="AA64">
+        <v>-5</v>
       </c>
       <c r="AG64">
         <v>63</v>
@@ -5109,43 +5286,49 @@
     </row>
     <row r="65" spans="2:33">
       <c r="D65" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E65" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F65" t="s">
-        <v>373</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>55</v>
+        <v>365</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="R65">
-        <v>-5</v>
+        <v>163</v>
       </c>
       <c r="T65">
-        <v>-2</v>
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>-10</v>
       </c>
       <c r="W65">
-        <v>-10</v>
+        <v>10</v>
+      </c>
+      <c r="Y65">
+        <v>10</v>
       </c>
       <c r="Z65">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="AG65">
         <v>64</v>
@@ -5153,55 +5336,43 @@
     </row>
     <row r="66" spans="2:33">
       <c r="D66" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E66" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F66" t="s">
-        <v>376</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>82</v>
+        <v>368</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q66" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="R66">
-        <v>-5</v>
-      </c>
-      <c r="S66">
-        <v>5</v>
-      </c>
-      <c r="T66">
-        <v>-2</v>
+        <v>163</v>
+      </c>
+      <c r="U66">
+        <v>-10</v>
       </c>
       <c r="V66">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="W66">
-        <v>-10</v>
+        <v>10</v>
+      </c>
+      <c r="Z66">
+        <v>-5</v>
       </c>
       <c r="AA66">
-        <v>1</v>
-      </c>
-      <c r="AB66">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="AG66">
         <v>65</v>
@@ -5209,49 +5380,43 @@
     </row>
     <row r="67" spans="2:33">
       <c r="D67" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E67" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F67" t="s">
-        <v>379</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>55</v>
+        <v>371</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q67" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="R67">
-        <v>-5</v>
+        <v>111</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="S67">
-        <v>5</v>
-      </c>
-      <c r="T67">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="V67">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="W67">
-        <v>-10</v>
-      </c>
-      <c r="AB67">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="Z67">
+        <v>-5</v>
+      </c>
+      <c r="AA67">
+        <v>-5</v>
       </c>
       <c r="AG67">
         <v>66</v>
@@ -5259,49 +5424,49 @@
     </row>
     <row r="68" spans="2:33">
       <c r="D68" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E68" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F68" t="s">
-        <v>382</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="R68">
-        <v>-5</v>
+        <v>111</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="P68" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q68" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="S68">
-        <v>5</v>
-      </c>
-      <c r="T68">
-        <v>-2</v>
-      </c>
-      <c r="U68">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="V68">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="W68">
-        <v>-10</v>
+        <v>10</v>
+      </c>
+      <c r="Z68">
+        <v>-5</v>
+      </c>
+      <c r="AA68">
+        <v>-5</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
       </c>
       <c r="AG68">
         <v>67</v>
@@ -5309,60 +5474,48 @@
     </row>
     <row r="69" spans="2:33">
       <c r="D69" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E69" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F69" t="s">
-        <v>385</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>55</v>
+        <v>377</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="R69">
-        <v>-5</v>
+        <v>111</v>
+      </c>
+      <c r="P69" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q69" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="S69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T69">
-        <v>5</v>
-      </c>
-      <c r="U69">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="V69">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="W69">
-        <v>-10</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
+        <v>10</v>
+      </c>
+      <c r="AA69">
+        <v>-5</v>
+      </c>
+      <c r="AB69">
         <v>1</v>
       </c>
       <c r="AG69">
@@ -5371,55 +5524,49 @@
     </row>
     <row r="70" spans="2:33">
       <c r="D70" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E70" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F70" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>91</v>
+        <v>71</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q70" s="12" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="S70">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T70">
-        <v>5</v>
-      </c>
-      <c r="U70">
-        <v>-5</v>
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>-10</v>
+      </c>
+      <c r="W70">
+        <v>10</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="Y70">
-        <v>1</v>
-      </c>
-      <c r="Z70">
-        <v>3</v>
-      </c>
-      <c r="AB70">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AG70">
         <v>69</v>
@@ -5427,43 +5574,43 @@
     </row>
     <row r="71" spans="2:33">
       <c r="D71" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E71" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F71" t="s">
-        <v>391</v>
+        <v>383</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="P71" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q71" s="12" t="s">
-        <v>178</v>
+        <v>71</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S71">
+        <v>10</v>
       </c>
       <c r="T71">
-        <v>5</v>
-      </c>
-      <c r="U71">
-        <v>-5</v>
-      </c>
-      <c r="Z71">
         <v>3</v>
       </c>
-      <c r="AA71">
-        <v>3</v>
-      </c>
-      <c r="AB71">
-        <v>-2</v>
+      <c r="V71">
+        <v>-10</v>
+      </c>
+      <c r="X71">
+        <v>-5</v>
+      </c>
+      <c r="Y71">
+        <v>-5</v>
       </c>
       <c r="AG71">
         <v>70</v>
@@ -5471,139 +5618,127 @@
     </row>
     <row r="72" spans="2:33">
       <c r="B72" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
-      </c>
-      <c r="D72" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E72" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F72" t="s">
-        <v>394</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O72" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="P72" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="U72">
-        <v>-5</v>
-      </c>
-      <c r="Z72">
+        <v>386</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N72" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S72">
+        <v>10</v>
+      </c>
+      <c r="T72">
         <v>3</v>
       </c>
-      <c r="AA72">
-        <v>3</v>
+      <c r="V72">
+        <v>-10</v>
+      </c>
+      <c r="X72">
+        <v>-5</v>
+      </c>
+      <c r="Y72">
+        <v>-5</v>
       </c>
       <c r="AG72">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="2:33">
-      <c r="B73" t="s">
-        <v>400</v>
-      </c>
-      <c r="C73" t="s">
-        <v>401</v>
-      </c>
       <c r="D73" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E73" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F73" t="s">
-        <v>398</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>56</v>
+        <v>390</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="P73" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q73" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="R73">
-        <v>5</v>
+        <v>101</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
       </c>
       <c r="V73">
-        <v>-5</v>
-      </c>
-      <c r="Z73">
-        <v>3</v>
-      </c>
-      <c r="AA73">
-        <v>3</v>
-      </c>
-      <c r="AB73">
-        <v>5</v>
+        <v>-10</v>
+      </c>
+      <c r="X73">
+        <v>-5</v>
+      </c>
+      <c r="Y73">
+        <v>-5</v>
       </c>
       <c r="AG73">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="2:33">
+      <c r="D74" t="s">
+        <v>395</v>
+      </c>
       <c r="E74" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="F74" t="s">
-        <v>403</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>103</v>
+        <v>393</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="P74" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q74" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="R74">
-        <v>5</v>
-      </c>
-      <c r="S74">
-        <v>1</v>
-      </c>
-      <c r="V74">
+        <v>152</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="X74">
+        <v>-5</v>
+      </c>
+      <c r="Y74">
         <v>-5</v>
       </c>
       <c r="Z74">
-        <v>3</v>
-      </c>
-      <c r="AA74">
-        <v>3</v>
-      </c>
-      <c r="AB74">
         <v>5</v>
       </c>
       <c r="AG74">
@@ -5612,67 +5747,49 @@
     </row>
     <row r="75" spans="2:33">
       <c r="D75" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E75" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F75" t="s">
-        <v>405</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q75" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="R75">
-        <v>5</v>
-      </c>
-      <c r="S75">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="T75">
-        <v>-5</v>
-      </c>
-      <c r="V75">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="X75">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="Y75">
+        <v>-5</v>
+      </c>
+      <c r="Z75">
+        <v>5</v>
+      </c>
+      <c r="AA75">
+        <v>5</v>
+      </c>
+      <c r="AB75">
         <v>3</v>
-      </c>
-      <c r="Z75">
-        <v>3</v>
-      </c>
-      <c r="AA75">
-        <v>3</v>
-      </c>
-      <c r="AB75">
-        <v>5</v>
       </c>
       <c r="AG75">
         <v>74</v>
@@ -5680,54 +5797,36 @@
     </row>
     <row r="76" spans="2:33">
       <c r="D76" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E76" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F76" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="N76" s="7" t="s">
-        <v>131</v>
+        <v>54</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P76" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q76" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="R76">
-        <v>5</v>
-      </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
-      <c r="T76">
-        <v>-5</v>
-      </c>
-      <c r="U76">
-        <v>5</v>
-      </c>
-      <c r="V76">
-        <v>-5</v>
-      </c>
-      <c r="X76">
-        <v>-10</v>
-      </c>
-      <c r="Y76">
+        <v>10</v>
+      </c>
+      <c r="Z76">
+        <v>5</v>
+      </c>
+      <c r="AA76">
+        <v>5</v>
+      </c>
+      <c r="AB76">
         <v>3</v>
       </c>
       <c r="AG76">
@@ -5735,61 +5834,49 @@
       </c>
     </row>
     <row r="77" spans="2:33">
-      <c r="B77" t="s">
-        <v>413</v>
-      </c>
-      <c r="C77" t="s">
-        <v>356</v>
-      </c>
       <c r="D77" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E77" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F77" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="N77" s="7" t="s">
-        <v>131</v>
+        <v>67</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P77" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q77" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="R77">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S77">
-        <v>1</v>
-      </c>
-      <c r="T77">
-        <v>-5</v>
-      </c>
-      <c r="U77">
-        <v>5</v>
-      </c>
-      <c r="V77">
-        <v>-5</v>
-      </c>
-      <c r="X77">
-        <v>-10</v>
-      </c>
-      <c r="Y77">
+        <v>-5</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="Z77">
+        <v>5</v>
+      </c>
+      <c r="AA77">
+        <v>5</v>
+      </c>
+      <c r="AB77">
         <v>3</v>
       </c>
       <c r="AG77">
@@ -5797,43 +5884,55 @@
       </c>
     </row>
     <row r="78" spans="2:33">
+      <c r="B78" t="s">
+        <v>407</v>
+      </c>
+      <c r="C78" t="s">
+        <v>408</v>
+      </c>
       <c r="D78" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E78" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F78" t="s">
-        <v>415</v>
+        <v>405</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M78" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>131</v>
+        <v>67</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P78" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q78" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="R78">
+        <v>10</v>
       </c>
       <c r="S78">
-        <v>1</v>
-      </c>
-      <c r="T78">
-        <v>-5</v>
-      </c>
-      <c r="U78">
-        <v>5</v>
-      </c>
-      <c r="X78">
-        <v>-10</v>
-      </c>
-      <c r="Y78">
+        <v>-5</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
+        <v>5</v>
+      </c>
+      <c r="AA78">
+        <v>5</v>
+      </c>
+      <c r="AB78">
         <v>3</v>
       </c>
       <c r="AG78">
@@ -5842,49 +5941,43 @@
     </row>
     <row r="79" spans="2:33">
       <c r="D79" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E79" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F79" t="s">
-        <v>418</v>
+        <v>410</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L79" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="N79" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>144</v>
+        <v>72</v>
+      </c>
+      <c r="P79" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q79" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="R79">
+        <v>10</v>
+      </c>
+      <c r="S79">
+        <v>-5</v>
       </c>
       <c r="T79">
-        <v>-5</v>
-      </c>
-      <c r="U79">
-        <v>5</v>
-      </c>
-      <c r="W79">
-        <v>10</v>
-      </c>
-      <c r="X79">
-        <v>-10</v>
-      </c>
-      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>5</v>
+      </c>
+      <c r="AB79">
         <v>3</v>
-      </c>
-      <c r="Z79">
-        <v>1</v>
       </c>
       <c r="AG79">
         <v>78</v>
@@ -5892,55 +5985,49 @@
     </row>
     <row r="80" spans="2:33">
       <c r="D80" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E80" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F80" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L80" s="11" t="s">
-        <v>114</v>
+        <v>54</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="N80" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="O80" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="P80" s="9" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="Q80" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R80">
+        <v>10</v>
+      </c>
+      <c r="S80">
+        <v>-5</v>
+      </c>
+      <c r="T80">
         <v>1</v>
       </c>
-      <c r="W80">
+      <c r="U80">
         <v>10</v>
       </c>
       <c r="X80">
-        <v>-10</v>
-      </c>
-      <c r="Y80">
+        <v>10</v>
+      </c>
+      <c r="AB80">
         <v>3</v>
-      </c>
-      <c r="Z80">
-        <v>1</v>
-      </c>
-      <c r="AA80">
-        <v>1</v>
-      </c>
-      <c r="AB80">
-        <v>-5</v>
       </c>
       <c r="AG80">
         <v>79</v>
@@ -5948,49 +6035,55 @@
     </row>
     <row r="81" spans="2:33">
       <c r="D81" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E81" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F81" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L81" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="P81" s="9" t="s">
-        <v>156</v>
+        <v>67</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="Q81" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R81">
+        <v>10</v>
+      </c>
+      <c r="S81">
+        <v>-5</v>
+      </c>
+      <c r="T81">
         <v>1</v>
       </c>
-      <c r="S81">
+      <c r="U81">
+        <v>10</v>
+      </c>
+      <c r="X81">
+        <v>10</v>
+      </c>
+      <c r="Y81">
+        <v>5</v>
+      </c>
+      <c r="AB81">
         <v>3</v>
-      </c>
-      <c r="V81">
-        <v>5</v>
-      </c>
-      <c r="W81">
-        <v>10</v>
-      </c>
-      <c r="AA81">
-        <v>1</v>
-      </c>
-      <c r="AB81">
-        <v>-5</v>
       </c>
       <c r="AG81">
         <v>80</v>
@@ -5998,111 +6091,93 @@
     </row>
     <row r="82" spans="2:33">
       <c r="D82" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E82" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F82" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K82" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L82" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q82" s="12" t="s">
-        <v>170</v>
+        <v>72</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="R82">
+        <v>10</v>
+      </c>
+      <c r="S82">
+        <v>-5</v>
+      </c>
+      <c r="T82">
         <v>1</v>
       </c>
-      <c r="S82">
-        <v>3</v>
-      </c>
-      <c r="T82">
-        <v>10</v>
-      </c>
-      <c r="V82">
-        <v>5</v>
-      </c>
-      <c r="W82">
-        <v>10</v>
-      </c>
-      <c r="AB82">
-        <v>-5</v>
+      <c r="U82">
+        <v>10</v>
+      </c>
+      <c r="X82">
+        <v>10</v>
+      </c>
+      <c r="Y82">
+        <v>5</v>
       </c>
       <c r="AG82">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="2:33">
-      <c r="B83" t="s">
-        <v>432</v>
-      </c>
-      <c r="C83" t="s">
-        <v>184</v>
-      </c>
       <c r="D83" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E83" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F83" t="s">
-        <v>430</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>57</v>
+        <v>422</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K83" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L83" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q83" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="R83">
+        <v>72</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="S83">
+        <v>-5</v>
+      </c>
+      <c r="T83">
         <v>1</v>
       </c>
-      <c r="S83">
-        <v>3</v>
-      </c>
-      <c r="T83">
-        <v>10</v>
-      </c>
-      <c r="V83">
-        <v>5</v>
-      </c>
-      <c r="W83">
-        <v>10</v>
-      </c>
-      <c r="Z83">
-        <v>-2</v>
-      </c>
-      <c r="AB83">
-        <v>-5</v>
+      <c r="U83">
+        <v>10</v>
+      </c>
+      <c r="X83">
+        <v>10</v>
+      </c>
+      <c r="Y83">
+        <v>5</v>
       </c>
       <c r="AG83">
         <v>82</v>
@@ -6110,55 +6185,37 @@
     </row>
     <row r="84" spans="2:33">
       <c r="D84" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E84" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F84" t="s">
-        <v>434</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>59</v>
+        <v>425</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K84" s="10" t="s">
-        <v>104</v>
+        <v>82</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="P84" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="R84">
-        <v>1</v>
-      </c>
-      <c r="S84">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="T84">
-        <v>10</v>
-      </c>
-      <c r="V84">
-        <v>5</v>
+        <v>-2</v>
+      </c>
+      <c r="U84">
+        <v>10</v>
+      </c>
+      <c r="X84">
+        <v>10</v>
       </c>
       <c r="Y84">
-        <v>1</v>
-      </c>
-      <c r="Z84">
-        <v>-2</v>
-      </c>
-      <c r="AA84">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="AG84">
         <v>83</v>
@@ -6166,43 +6223,43 @@
     </row>
     <row r="85" spans="2:33">
       <c r="D85" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E85" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F85" t="s">
-        <v>437</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>59</v>
+        <v>428</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N85" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P85" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="S85">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="T85">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="U85">
+        <v>10</v>
+      </c>
+      <c r="W85">
+        <v>-10</v>
+      </c>
+      <c r="X85">
+        <v>10</v>
+      </c>
+      <c r="Z85">
         <v>1</v>
-      </c>
-      <c r="Y85">
-        <v>1</v>
-      </c>
-      <c r="AA85">
-        <v>-2</v>
       </c>
       <c r="AG85">
         <v>84</v>
@@ -6210,25 +6267,43 @@
     </row>
     <row r="86" spans="2:33">
       <c r="D86" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E86" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F86" t="s">
-        <v>440</v>
+        <v>431</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
+      </c>
+      <c r="P86" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R86">
+        <v>-5</v>
       </c>
       <c r="T86">
-        <v>10</v>
+        <v>-2</v>
+      </c>
+      <c r="W86">
+        <v>-10</v>
       </c>
       <c r="Z86">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>1</v>
       </c>
       <c r="AG86">
         <v>85</v>
@@ -6236,37 +6311,49 @@
     </row>
     <row r="87" spans="2:33">
       <c r="D87" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E87" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="F87" t="s">
-        <v>443</v>
+        <v>434</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q87" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
+      </c>
+      <c r="R87">
+        <v>-5</v>
+      </c>
+      <c r="S87">
+        <v>5</v>
+      </c>
+      <c r="T87">
+        <v>-2</v>
+      </c>
+      <c r="V87">
+        <v>10</v>
       </c>
       <c r="W87">
-        <v>-5</v>
-      </c>
-      <c r="Z87">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="AA87">
-        <v>5</v>
-      </c>
-      <c r="AB87">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AG87">
         <v>86</v>
@@ -6274,55 +6361,49 @@
     </row>
     <row r="88" spans="2:33">
       <c r="D88" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E88" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F88" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N88" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="O88" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="P88" s="9" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Q88" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="R88">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="S88">
+        <v>5</v>
+      </c>
+      <c r="T88">
+        <v>-2</v>
+      </c>
+      <c r="V88">
+        <v>10</v>
+      </c>
+      <c r="W88">
+        <v>-10</v>
+      </c>
+      <c r="AB88">
         <v>1</v>
-      </c>
-      <c r="W88">
-        <v>-5</v>
-      </c>
-      <c r="Y88">
-        <v>-2</v>
-      </c>
-      <c r="Z88">
-        <v>5</v>
-      </c>
-      <c r="AA88">
-        <v>5</v>
-      </c>
-      <c r="AB88">
-        <v>10</v>
       </c>
       <c r="AG88">
         <v>87</v>
@@ -6330,123 +6411,99 @@
     </row>
     <row r="89" spans="2:33">
       <c r="D89" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E89" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F89" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N89" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="O89" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="P89" s="9" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Q89" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="R89">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>-2</v>
+      </c>
+      <c r="V89">
+        <v>10</v>
+      </c>
+      <c r="W89">
+        <v>-10</v>
+      </c>
+      <c r="AB89">
         <v>1</v>
-      </c>
-      <c r="W89">
-        <v>-5</v>
-      </c>
-      <c r="Y89">
-        <v>-2</v>
-      </c>
-      <c r="Z89">
-        <v>5</v>
-      </c>
-      <c r="AA89">
-        <v>5</v>
-      </c>
-      <c r="AB89">
-        <v>10</v>
       </c>
       <c r="AG89">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="2:33">
-      <c r="B90" t="s">
-        <v>454</v>
-      </c>
-      <c r="C90" t="s">
-        <v>184</v>
-      </c>
       <c r="D90" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E90" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F90" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M90" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q90" s="12" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="R90">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="S90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T90">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U90">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="V90">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W90">
-        <v>-5</v>
-      </c>
-      <c r="X90">
-        <v>10</v>
-      </c>
-      <c r="AB90">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="AG90">
         <v>89</v>
@@ -6454,64 +6511,1588 @@
     </row>
     <row r="91" spans="2:33">
       <c r="D91" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E91" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F91" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M91" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N91" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q91" s="12" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="R91">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="S91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T91">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U91">
-        <v>3</v>
+        <v>-5</v>
+      </c>
+      <c r="V91">
+        <v>10</v>
       </c>
       <c r="W91">
-        <v>-5</v>
-      </c>
-      <c r="X91">
-        <v>10</v>
-      </c>
-      <c r="Y91">
-        <v>5</v>
-      </c>
-      <c r="AB91">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="AG91">
         <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="2:33">
+      <c r="D92" t="s">
+        <v>451</v>
+      </c>
+      <c r="E92" t="s">
+        <v>450</v>
+      </c>
+      <c r="F92" t="s">
+        <v>449</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q92" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="R92">
+        <v>-5</v>
+      </c>
+      <c r="S92">
+        <v>5</v>
+      </c>
+      <c r="T92">
+        <v>5</v>
+      </c>
+      <c r="U92">
+        <v>-5</v>
+      </c>
+      <c r="V92">
+        <v>10</v>
+      </c>
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
+        <v>1</v>
+      </c>
+      <c r="AB92">
+        <v>-2</v>
+      </c>
+      <c r="AG92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="2:33">
+      <c r="D93" t="s">
+        <v>454</v>
+      </c>
+      <c r="E93" t="s">
+        <v>453</v>
+      </c>
+      <c r="F93" t="s">
+        <v>452</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O93" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q93" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="S93">
+        <v>5</v>
+      </c>
+      <c r="T93">
+        <v>5</v>
+      </c>
+      <c r="U93">
+        <v>-5</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>1</v>
+      </c>
+      <c r="Z93">
+        <v>3</v>
+      </c>
+      <c r="AB93">
+        <v>-2</v>
+      </c>
+      <c r="AG93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="2:33">
+      <c r="D94" t="s">
+        <v>457</v>
+      </c>
+      <c r="E94" t="s">
+        <v>456</v>
+      </c>
+      <c r="F94" t="s">
+        <v>455</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O94" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P94" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q94" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="T94">
+        <v>5</v>
+      </c>
+      <c r="U94">
+        <v>-5</v>
+      </c>
+      <c r="Z94">
+        <v>3</v>
+      </c>
+      <c r="AA94">
+        <v>3</v>
+      </c>
+      <c r="AB94">
+        <v>-2</v>
+      </c>
+      <c r="AG94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="2:33">
+      <c r="D95" t="s">
+        <v>460</v>
+      </c>
+      <c r="E95" t="s">
+        <v>459</v>
+      </c>
+      <c r="F95" t="s">
+        <v>458</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O95" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P95" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="T95">
+        <v>5</v>
+      </c>
+      <c r="U95">
+        <v>-5</v>
+      </c>
+      <c r="Z95">
+        <v>3</v>
+      </c>
+      <c r="AA95">
+        <v>3</v>
+      </c>
+      <c r="AG95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="2:33">
+      <c r="B96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C96" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" t="s">
+        <v>464</v>
+      </c>
+      <c r="E96" t="s">
+        <v>462</v>
+      </c>
+      <c r="F96" t="s">
+        <v>461</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O96" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P96" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q96" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+      <c r="Z96">
+        <v>3</v>
+      </c>
+      <c r="AA96">
+        <v>3</v>
+      </c>
+      <c r="AB96">
+        <v>5</v>
+      </c>
+      <c r="AG96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="2:33">
+      <c r="B97" t="s">
+        <v>467</v>
+      </c>
+      <c r="C97" t="s">
+        <v>468</v>
+      </c>
+      <c r="D97" t="s">
+        <v>469</v>
+      </c>
+      <c r="E97" t="s">
+        <v>466</v>
+      </c>
+      <c r="F97" t="s">
+        <v>465</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P97" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q97" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="R97">
+        <v>5</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="V97">
+        <v>-5</v>
+      </c>
+      <c r="Z97">
+        <v>3</v>
+      </c>
+      <c r="AA97">
+        <v>3</v>
+      </c>
+      <c r="AB97">
+        <v>5</v>
+      </c>
+      <c r="AG97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="2:33">
+      <c r="E98" t="s">
+        <v>471</v>
+      </c>
+      <c r="F98" t="s">
+        <v>470</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O98" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P98" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q98" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="R98">
+        <v>5</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="V98">
+        <v>-5</v>
+      </c>
+      <c r="Z98">
+        <v>3</v>
+      </c>
+      <c r="AA98">
+        <v>3</v>
+      </c>
+      <c r="AB98">
+        <v>5</v>
+      </c>
+      <c r="AG98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="2:33">
+      <c r="D99" t="s">
+        <v>474</v>
+      </c>
+      <c r="E99" t="s">
+        <v>473</v>
+      </c>
+      <c r="F99" t="s">
+        <v>472</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O99" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P99" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q99" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="R99">
+        <v>5</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>-5</v>
+      </c>
+      <c r="V99">
+        <v>-5</v>
+      </c>
+      <c r="X99">
+        <v>-10</v>
+      </c>
+      <c r="Y99">
+        <v>3</v>
+      </c>
+      <c r="Z99">
+        <v>3</v>
+      </c>
+      <c r="AA99">
+        <v>3</v>
+      </c>
+      <c r="AB99">
+        <v>5</v>
+      </c>
+      <c r="AG99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="2:33">
+      <c r="D100" t="s">
+        <v>477</v>
+      </c>
+      <c r="E100" t="s">
+        <v>476</v>
+      </c>
+      <c r="F100" t="s">
+        <v>475</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N100" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P100" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q100" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="R100">
+        <v>5</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>-5</v>
+      </c>
+      <c r="V100">
+        <v>-5</v>
+      </c>
+      <c r="X100">
+        <v>-10</v>
+      </c>
+      <c r="Y100">
+        <v>3</v>
+      </c>
+      <c r="AA100">
+        <v>3</v>
+      </c>
+      <c r="AB100">
+        <v>5</v>
+      </c>
+      <c r="AG100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="2:33">
+      <c r="D101" t="s">
+        <v>480</v>
+      </c>
+      <c r="E101" t="s">
+        <v>479</v>
+      </c>
+      <c r="F101" t="s">
+        <v>478</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="R101">
+        <v>5</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>-5</v>
+      </c>
+      <c r="U101">
+        <v>5</v>
+      </c>
+      <c r="V101">
+        <v>-5</v>
+      </c>
+      <c r="X101">
+        <v>-10</v>
+      </c>
+      <c r="Y101">
+        <v>3</v>
+      </c>
+      <c r="AG101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="2:33">
+      <c r="D102" t="s">
+        <v>483</v>
+      </c>
+      <c r="E102" t="s">
+        <v>482</v>
+      </c>
+      <c r="F102" t="s">
+        <v>481</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N102" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="R102">
+        <v>5</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>-5</v>
+      </c>
+      <c r="U102">
+        <v>5</v>
+      </c>
+      <c r="V102">
+        <v>-5</v>
+      </c>
+      <c r="X102">
+        <v>-10</v>
+      </c>
+      <c r="Y102">
+        <v>3</v>
+      </c>
+      <c r="AG102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="2:33">
+      <c r="B103" t="s">
+        <v>486</v>
+      </c>
+      <c r="C103" t="s">
+        <v>408</v>
+      </c>
+      <c r="D103" t="s">
+        <v>487</v>
+      </c>
+      <c r="E103" t="s">
+        <v>485</v>
+      </c>
+      <c r="F103" t="s">
+        <v>484</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N103" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+      <c r="T103">
+        <v>-5</v>
+      </c>
+      <c r="U103">
+        <v>5</v>
+      </c>
+      <c r="X103">
+        <v>-10</v>
+      </c>
+      <c r="Y103">
+        <v>3</v>
+      </c>
+      <c r="AG103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="2:33">
+      <c r="E104" t="s">
+        <v>489</v>
+      </c>
+      <c r="F104" t="s">
+        <v>488</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T104">
+        <v>-5</v>
+      </c>
+      <c r="U104">
+        <v>5</v>
+      </c>
+      <c r="X104">
+        <v>-10</v>
+      </c>
+      <c r="Y104">
+        <v>3</v>
+      </c>
+      <c r="AG104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="2:33">
+      <c r="D105" t="s">
+        <v>492</v>
+      </c>
+      <c r="E105" t="s">
+        <v>491</v>
+      </c>
+      <c r="F105" t="s">
+        <v>490</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N105" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O105" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="T105">
+        <v>-5</v>
+      </c>
+      <c r="U105">
+        <v>5</v>
+      </c>
+      <c r="W105">
+        <v>10</v>
+      </c>
+      <c r="X105">
+        <v>-10</v>
+      </c>
+      <c r="Y105">
+        <v>3</v>
+      </c>
+      <c r="Z105">
+        <v>1</v>
+      </c>
+      <c r="AG105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="2:33">
+      <c r="D106" t="s">
+        <v>495</v>
+      </c>
+      <c r="E106" t="s">
+        <v>494</v>
+      </c>
+      <c r="F106" t="s">
+        <v>493</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N106" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O106" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P106" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q106" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="W106">
+        <v>10</v>
+      </c>
+      <c r="X106">
+        <v>-10</v>
+      </c>
+      <c r="Y106">
+        <v>3</v>
+      </c>
+      <c r="Z106">
+        <v>1</v>
+      </c>
+      <c r="AA106">
+        <v>1</v>
+      </c>
+      <c r="AB106">
+        <v>-5</v>
+      </c>
+      <c r="AG106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="2:33">
+      <c r="D107" t="s">
+        <v>498</v>
+      </c>
+      <c r="E107" t="s">
+        <v>497</v>
+      </c>
+      <c r="F107" t="s">
+        <v>496</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P107" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q107" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>3</v>
+      </c>
+      <c r="W107">
+        <v>10</v>
+      </c>
+      <c r="AA107">
+        <v>1</v>
+      </c>
+      <c r="AB107">
+        <v>-5</v>
+      </c>
+      <c r="AG107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="2:33">
+      <c r="D108" t="s">
+        <v>501</v>
+      </c>
+      <c r="E108" t="s">
+        <v>500</v>
+      </c>
+      <c r="F108" t="s">
+        <v>499</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q108" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>3</v>
+      </c>
+      <c r="V108">
+        <v>5</v>
+      </c>
+      <c r="W108">
+        <v>10</v>
+      </c>
+      <c r="AB108">
+        <v>-5</v>
+      </c>
+      <c r="AG108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="2:33">
+      <c r="D109" t="s">
+        <v>504</v>
+      </c>
+      <c r="E109" t="s">
+        <v>503</v>
+      </c>
+      <c r="F109" t="s">
+        <v>502</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q109" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>3</v>
+      </c>
+      <c r="T109">
+        <v>10</v>
+      </c>
+      <c r="V109">
+        <v>5</v>
+      </c>
+      <c r="W109">
+        <v>10</v>
+      </c>
+      <c r="AB109">
+        <v>-5</v>
+      </c>
+      <c r="AG109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="2:33">
+      <c r="B110" t="s">
+        <v>507</v>
+      </c>
+      <c r="C110" t="s">
+        <v>184</v>
+      </c>
+      <c r="D110" t="s">
+        <v>508</v>
+      </c>
+      <c r="E110" t="s">
+        <v>506</v>
+      </c>
+      <c r="F110" t="s">
+        <v>505</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O110" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q110" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>3</v>
+      </c>
+      <c r="T110">
+        <v>10</v>
+      </c>
+      <c r="V110">
+        <v>5</v>
+      </c>
+      <c r="W110">
+        <v>10</v>
+      </c>
+      <c r="Z110">
+        <v>-2</v>
+      </c>
+      <c r="AB110">
+        <v>-5</v>
+      </c>
+      <c r="AG110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="2:33">
+      <c r="D111" t="s">
+        <v>511</v>
+      </c>
+      <c r="E111" t="s">
+        <v>510</v>
+      </c>
+      <c r="F111" t="s">
+        <v>509</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O111" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P111" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q111" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>3</v>
+      </c>
+      <c r="T111">
+        <v>10</v>
+      </c>
+      <c r="V111">
+        <v>5</v>
+      </c>
+      <c r="Z111">
+        <v>-2</v>
+      </c>
+      <c r="AA111">
+        <v>-2</v>
+      </c>
+      <c r="AB111">
+        <v>-5</v>
+      </c>
+      <c r="AG111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="2:33">
+      <c r="D112" t="s">
+        <v>514</v>
+      </c>
+      <c r="E112" t="s">
+        <v>513</v>
+      </c>
+      <c r="F112" t="s">
+        <v>512</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N112" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O112" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P112" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <v>3</v>
+      </c>
+      <c r="T112">
+        <v>10</v>
+      </c>
+      <c r="U112">
+        <v>1</v>
+      </c>
+      <c r="Y112">
+        <v>1</v>
+      </c>
+      <c r="Z112">
+        <v>-2</v>
+      </c>
+      <c r="AA112">
+        <v>-2</v>
+      </c>
+      <c r="AG112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="2:33">
+      <c r="D113" t="s">
+        <v>517</v>
+      </c>
+      <c r="E113" t="s">
+        <v>516</v>
+      </c>
+      <c r="F113" t="s">
+        <v>515</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N113" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P113" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="S113">
+        <v>3</v>
+      </c>
+      <c r="T113">
+        <v>10</v>
+      </c>
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="Y113">
+        <v>1</v>
+      </c>
+      <c r="AA113">
+        <v>-2</v>
+      </c>
+      <c r="AG113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="2:33">
+      <c r="D114" t="s">
+        <v>520</v>
+      </c>
+      <c r="E114" t="s">
+        <v>519</v>
+      </c>
+      <c r="F114" t="s">
+        <v>518</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O114" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="T114">
+        <v>10</v>
+      </c>
+      <c r="Z114">
+        <v>5</v>
+      </c>
+      <c r="AG114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="2:33">
+      <c r="D115" t="s">
+        <v>523</v>
+      </c>
+      <c r="E115" t="s">
+        <v>522</v>
+      </c>
+      <c r="F115" t="s">
+        <v>521</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O115" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P115" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="T115">
+        <v>10</v>
+      </c>
+      <c r="W115">
+        <v>-5</v>
+      </c>
+      <c r="Z115">
+        <v>5</v>
+      </c>
+      <c r="AA115">
+        <v>5</v>
+      </c>
+      <c r="AG115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="2:33">
+      <c r="D116" t="s">
+        <v>526</v>
+      </c>
+      <c r="E116" t="s">
+        <v>525</v>
+      </c>
+      <c r="F116" t="s">
+        <v>524</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O116" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P116" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q116" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
+      </c>
+      <c r="W116">
+        <v>-5</v>
+      </c>
+      <c r="Z116">
+        <v>5</v>
+      </c>
+      <c r="AA116">
+        <v>5</v>
+      </c>
+      <c r="AB116">
+        <v>10</v>
+      </c>
+      <c r="AG116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="2:33">
+      <c r="D117" t="s">
+        <v>529</v>
+      </c>
+      <c r="E117" t="s">
+        <v>528</v>
+      </c>
+      <c r="F117" t="s">
+        <v>527</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="N117" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O117" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P117" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q117" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="R117">
+        <v>3</v>
+      </c>
+      <c r="S117">
+        <v>1</v>
+      </c>
+      <c r="W117">
+        <v>-5</v>
+      </c>
+      <c r="Y117">
+        <v>-2</v>
+      </c>
+      <c r="Z117">
+        <v>5</v>
+      </c>
+      <c r="AA117">
+        <v>5</v>
+      </c>
+      <c r="AB117">
+        <v>10</v>
+      </c>
+      <c r="AG117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="2:33">
+      <c r="D118" t="s">
+        <v>532</v>
+      </c>
+      <c r="E118" t="s">
+        <v>531</v>
+      </c>
+      <c r="F118" t="s">
+        <v>530</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="N118" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O118" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P118" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q118" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="R118">
+        <v>3</v>
+      </c>
+      <c r="S118">
+        <v>1</v>
+      </c>
+      <c r="W118">
+        <v>-5</v>
+      </c>
+      <c r="Y118">
+        <v>-2</v>
+      </c>
+      <c r="Z118">
+        <v>5</v>
+      </c>
+      <c r="AA118">
+        <v>5</v>
+      </c>
+      <c r="AB118">
+        <v>10</v>
+      </c>
+      <c r="AG118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="2:33">
+      <c r="B119" t="s">
+        <v>535</v>
+      </c>
+      <c r="C119" t="s">
+        <v>184</v>
+      </c>
+      <c r="D119" t="s">
+        <v>536</v>
+      </c>
+      <c r="E119" t="s">
+        <v>534</v>
+      </c>
+      <c r="F119" t="s">
+        <v>533</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P119" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q119" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="R119">
+        <v>3</v>
+      </c>
+      <c r="S119">
+        <v>1</v>
+      </c>
+      <c r="T119">
+        <v>-1</v>
+      </c>
+      <c r="V119">
+        <v>1</v>
+      </c>
+      <c r="W119">
+        <v>-5</v>
+      </c>
+      <c r="AA119">
+        <v>5</v>
+      </c>
+      <c r="AB119">
+        <v>10</v>
+      </c>
+      <c r="AG119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="2:33">
+      <c r="D120" t="s">
+        <v>539</v>
+      </c>
+      <c r="E120" t="s">
+        <v>538</v>
+      </c>
+      <c r="F120" t="s">
+        <v>537</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q120" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="R120">
+        <v>3</v>
+      </c>
+      <c r="S120">
+        <v>1</v>
+      </c>
+      <c r="T120">
+        <v>-1</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
+        <v>1</v>
+      </c>
+      <c r="W120">
+        <v>-5</v>
+      </c>
+      <c r="X120">
+        <v>10</v>
+      </c>
+      <c r="AB120">
+        <v>10</v>
+      </c>
+      <c r="AG120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="2:33">
+      <c r="D121" t="s">
+        <v>542</v>
+      </c>
+      <c r="E121" t="s">
+        <v>541</v>
+      </c>
+      <c r="F121" t="s">
+        <v>540</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N121" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q121" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="R121">
+        <v>3</v>
+      </c>
+      <c r="S121">
+        <v>1</v>
+      </c>
+      <c r="T121">
+        <v>-1</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="X121">
+        <v>10</v>
+      </c>
+      <c r="Y121">
+        <v>5</v>
+      </c>
+      <c r="AB121">
+        <v>10</v>
+      </c>
+      <c r="AG121">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/charts_xlsx/kschart.xlsx
+++ b/charts_xlsx/kschart.xlsx
@@ -928,12 +928,11 @@
     <t xml:space="preserve">211: [-5 APPLYING TRINE to MOON; 7 APPLYING OPPOSITION to VENUS; -2 SEPARATING SQUARE to JUPITER; 2 SEPARATING SQUARE to SATURN] </t>
   </si>
   <si>
-    <t>211: [STITCH DETERMINER FOR: APPLYING TRINE (ASC, MOON) [Score:Intensity: TRINE:8, Exactness:-5, Collective Planet Speed:10] 
+    <t>211: [STITCH DETERMINER FOR: APPLYING TRINE (ASC, MOON) [Score:Intensity: TRINE:8 - Exactness:-5, Calc Score:3] 
 Diamonds, Triangles, or Leaves 
- Exactness Stitch Width: 5 
  Aspect K/P:PatternStitchBase.KNIT 
- Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Speed Stitch Width: [10, 0] 
- Tot Dig Score: 1]</t>
+ Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Planet Scores: 0, 11 
+ Orb Width: 8]</t>
   </si>
   <si>
     <t>213</t>
@@ -1197,12 +1196,11 @@
     <t xml:space="preserve">326: [-5 APPLYING TRINE to ASC; 2 SEPARATING SEXTILE to VENUS; 7 SEPARATING TRINE to MARS; -2 APPLYING SEMISQUARE to URANUS; 6 SEPARATING SQUARE to PLUTO] </t>
   </si>
   <si>
-    <t>326: [STITCH DETERMINER FOR: APPLYING TRINE (MOON, ASC) [Score:Intensity: TRINE:8, Exactness:-5, Collective Planet Speed:10] 
+    <t>326: [STITCH DETERMINER FOR: APPLYING TRINE (MOON, ASC) [Score:Intensity: TRINE:8 - Exactness:-5, Calc Score:3] 
 Diamonds, Triangles, or Leaves 
- Exactness Stitch Width: 5 
  Aspect K/P:PatternStitchBase.KNIT 
- Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Speed Stitch Width: [10, 0] 
- Tot Dig Score: 1]</t>
+ Planets K/P: [&lt;PatternStitchBase.KNIT: 1&gt;, &lt;PatternStitchBase.KNIT: 1&gt;] Planet Scores: 11, 0 
+ Orb Width: 8]</t>
   </si>
   <si>
     <t>327</t>

--- a/charts_xlsx/kschart.xlsx
+++ b/charts_xlsx/kschart.xlsx
@@ -40,16 +40,16 @@
     <t>Asc</t>
   </si>
   <si>
-    <t>Sun Aspect Score</t>
-  </si>
-  <si>
-    <t>Moon Aspect Score</t>
-  </si>
-  <si>
-    <t>Asc Aspect Score</t>
-  </si>
-  <si>
-    <t>Personal total</t>
+    <t>Sun Aspect Intensity</t>
+  </si>
+  <si>
+    <t>Moon Aspect Intensity</t>
+  </si>
+  <si>
+    <t>Asc Aspect Intensity</t>
+  </si>
+  <si>
+    <t>Aspect intensity total</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -1472,6 +1472,10 @@
       <c r="L2">
         <v>4</v>
       </c>
+      <c r="M2">
+        <f>SUM(J1:L1)</f>
+        <v>0</v>
+      </c>
       <c r="Q2">
         <v>1</v>
       </c>
@@ -1489,6 +1493,10 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
+      <c r="M3">
+        <f>SUM(J2:L2)</f>
+        <v>0</v>
+      </c>
       <c r="Q3">
         <v>2</v>
       </c>
@@ -1500,6 +1508,10 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
+      <c r="M4">
+        <f>SUM(J3:L3)</f>
+        <v>0</v>
+      </c>
       <c r="Q4">
         <v>3</v>
       </c>
@@ -1517,6 +1529,10 @@
       <c r="K5">
         <v>3</v>
       </c>
+      <c r="M5">
+        <f>SUM(J4:L4)</f>
+        <v>0</v>
+      </c>
       <c r="Q5">
         <v>4</v>
       </c>
@@ -1534,6 +1550,10 @@
       <c r="K6">
         <v>3</v>
       </c>
+      <c r="M6">
+        <f>SUM(J5:L5)</f>
+        <v>0</v>
+      </c>
       <c r="Q6">
         <v>5</v>
       </c>
@@ -1545,6 +1565,10 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
+      <c r="M7">
+        <f>SUM(J6:L6)</f>
+        <v>0</v>
+      </c>
       <c r="Q7">
         <v>6</v>
       </c>
@@ -1562,6 +1586,10 @@
       <c r="K8">
         <v>7</v>
       </c>
+      <c r="M8">
+        <f>SUM(J7:L7)</f>
+        <v>0</v>
+      </c>
       <c r="Q8">
         <v>7</v>
       </c>
@@ -1591,6 +1619,10 @@
       <c r="L9">
         <v>9</v>
       </c>
+      <c r="M9">
+        <f>SUM(J8:L8)</f>
+        <v>0</v>
+      </c>
       <c r="Q9">
         <v>8</v>
       </c>
@@ -1626,6 +1658,10 @@
       <c r="L10">
         <v>9</v>
       </c>
+      <c r="M10">
+        <f>SUM(J9:L9)</f>
+        <v>0</v>
+      </c>
       <c r="Q10">
         <v>9</v>
       </c>
@@ -1649,6 +1685,10 @@
       <c r="L11">
         <v>9</v>
       </c>
+      <c r="M11">
+        <f>SUM(J10:L10)</f>
+        <v>0</v>
+      </c>
       <c r="Q11">
         <v>10</v>
       </c>
@@ -1672,6 +1712,10 @@
       <c r="L12">
         <v>9</v>
       </c>
+      <c r="M12">
+        <f>SUM(J11:L11)</f>
+        <v>0</v>
+      </c>
       <c r="Q12">
         <v>11</v>
       </c>
@@ -1689,6 +1733,10 @@
       <c r="L13">
         <v>9</v>
       </c>
+      <c r="M13">
+        <f>SUM(J12:L12)</f>
+        <v>0</v>
+      </c>
       <c r="Q13">
         <v>12</v>
       </c>
@@ -1718,6 +1766,10 @@
       <c r="L14">
         <v>9</v>
       </c>
+      <c r="M14">
+        <f>SUM(J13:L13)</f>
+        <v>0</v>
+      </c>
       <c r="Q14">
         <v>13</v>
       </c>
@@ -1741,6 +1793,10 @@
       <c r="L15">
         <v>9</v>
       </c>
+      <c r="M15">
+        <f>SUM(J14:L14)</f>
+        <v>0</v>
+      </c>
       <c r="Q15">
         <v>14</v>
       </c>
@@ -1752,6 +1808,10 @@
       <c r="F16" t="s">
         <v>88</v>
       </c>
+      <c r="M16">
+        <f>SUM(J15:L15)</f>
+        <v>0</v>
+      </c>
       <c r="Q16">
         <v>15</v>
       </c>
@@ -1769,6 +1829,10 @@
       <c r="J17">
         <v>7</v>
       </c>
+      <c r="M17">
+        <f>SUM(J16:L16)</f>
+        <v>0</v>
+      </c>
       <c r="Q17">
         <v>16</v>
       </c>
@@ -1792,6 +1856,10 @@
       <c r="K18">
         <v>6</v>
       </c>
+      <c r="M18">
+        <f>SUM(J17:L17)</f>
+        <v>0</v>
+      </c>
       <c r="Q18">
         <v>17</v>
       </c>
@@ -1815,6 +1883,10 @@
       <c r="K19">
         <v>6</v>
       </c>
+      <c r="M19">
+        <f>SUM(J18:L18)</f>
+        <v>0</v>
+      </c>
       <c r="Q19">
         <v>18</v>
       </c>
@@ -1838,6 +1910,10 @@
       <c r="K20">
         <v>6</v>
       </c>
+      <c r="M20">
+        <f>SUM(J19:L19)</f>
+        <v>0</v>
+      </c>
       <c r="Q20">
         <v>19</v>
       </c>
@@ -1867,6 +1943,10 @@
       <c r="L21">
         <v>4</v>
       </c>
+      <c r="M21">
+        <f>SUM(J20:L20)</f>
+        <v>0</v>
+      </c>
       <c r="Q21">
         <v>20</v>
       </c>
@@ -1890,6 +1970,10 @@
       <c r="L22">
         <v>4</v>
       </c>
+      <c r="M22">
+        <f>SUM(J21:L21)</f>
+        <v>0</v>
+      </c>
       <c r="Q22">
         <v>21</v>
       </c>
@@ -1913,6 +1997,10 @@
       <c r="K23">
         <v>6</v>
       </c>
+      <c r="M23">
+        <f>SUM(J22:L22)</f>
+        <v>0</v>
+      </c>
       <c r="Q23">
         <v>22</v>
       </c>
@@ -1924,6 +2012,10 @@
       <c r="F24" t="s">
         <v>104</v>
       </c>
+      <c r="M24">
+        <f>SUM(J23:L23)</f>
+        <v>0</v>
+      </c>
       <c r="Q24">
         <v>23</v>
       </c>
@@ -1935,6 +2027,10 @@
       <c r="F25" t="s">
         <v>106</v>
       </c>
+      <c r="M25">
+        <f>SUM(J24:L24)</f>
+        <v>0</v>
+      </c>
       <c r="Q25">
         <v>24</v>
       </c>
@@ -1946,6 +2042,10 @@
       <c r="F26" t="s">
         <v>108</v>
       </c>
+      <c r="M26">
+        <f>SUM(J25:L25)</f>
+        <v>0</v>
+      </c>
       <c r="Q26">
         <v>25</v>
       </c>
@@ -1963,6 +2063,10 @@
       <c r="J27">
         <v>6</v>
       </c>
+      <c r="M27">
+        <f>SUM(J26:L26)</f>
+        <v>0</v>
+      </c>
       <c r="Q27">
         <v>26</v>
       </c>
@@ -1992,6 +2096,10 @@
       <c r="K28">
         <v>8</v>
       </c>
+      <c r="M28">
+        <f>SUM(J27:L27)</f>
+        <v>0</v>
+      </c>
       <c r="Q28">
         <v>27</v>
       </c>
@@ -2021,6 +2129,10 @@
       <c r="L29">
         <v>8</v>
       </c>
+      <c r="M29">
+        <f>SUM(J28:L28)</f>
+        <v>0</v>
+      </c>
       <c r="Q29">
         <v>28</v>
       </c>
@@ -2050,6 +2162,10 @@
       <c r="L30">
         <v>8</v>
       </c>
+      <c r="M30">
+        <f>SUM(J29:L29)</f>
+        <v>0</v>
+      </c>
       <c r="Q30">
         <v>29</v>
       </c>
@@ -2079,6 +2195,10 @@
       <c r="L31">
         <v>8</v>
       </c>
+      <c r="M31">
+        <f>SUM(J30:L30)</f>
+        <v>0</v>
+      </c>
       <c r="Q31">
         <v>30</v>
       </c>
@@ -2108,6 +2228,10 @@
       <c r="L32">
         <v>8</v>
       </c>
+      <c r="M32">
+        <f>SUM(J31:L31)</f>
+        <v>0</v>
+      </c>
       <c r="Q32">
         <v>31</v>
       </c>
@@ -2131,6 +2255,10 @@
       <c r="L33">
         <v>8</v>
       </c>
+      <c r="M33">
+        <f>SUM(J32:L32)</f>
+        <v>0</v>
+      </c>
       <c r="Q33">
         <v>32</v>
       </c>
@@ -2148,6 +2276,10 @@
       <c r="L34">
         <v>8</v>
       </c>
+      <c r="M34">
+        <f>SUM(J33:L33)</f>
+        <v>0</v>
+      </c>
       <c r="Q34">
         <v>33</v>
       </c>
@@ -2159,6 +2291,10 @@
       <c r="F35" t="s">
         <v>128</v>
       </c>
+      <c r="M35">
+        <f>SUM(J34:L34)</f>
+        <v>0</v>
+      </c>
       <c r="Q35">
         <v>34</v>
       </c>
@@ -2170,6 +2306,10 @@
       <c r="F36" t="s">
         <v>130</v>
       </c>
+      <c r="M36">
+        <f>SUM(J35:L35)</f>
+        <v>0</v>
+      </c>
       <c r="Q36">
         <v>35</v>
       </c>
@@ -2187,6 +2327,10 @@
       <c r="J37">
         <v>8</v>
       </c>
+      <c r="M37">
+        <f>SUM(J36:L36)</f>
+        <v>0</v>
+      </c>
       <c r="Q37">
         <v>36</v>
       </c>
@@ -2210,6 +2354,10 @@
       <c r="K38">
         <v>1.5</v>
       </c>
+      <c r="M38">
+        <f>SUM(J37:L37)</f>
+        <v>0</v>
+      </c>
       <c r="Q38">
         <v>37</v>
       </c>
@@ -2233,6 +2381,10 @@
       <c r="L39">
         <v>6</v>
       </c>
+      <c r="M39">
+        <f>SUM(J38:L38)</f>
+        <v>0</v>
+      </c>
       <c r="Q39">
         <v>38</v>
       </c>
@@ -2262,6 +2414,10 @@
       <c r="L40">
         <v>6</v>
       </c>
+      <c r="M40">
+        <f>SUM(J39:L39)</f>
+        <v>0</v>
+      </c>
       <c r="Q40">
         <v>39</v>
       </c>
@@ -2291,6 +2447,10 @@
       <c r="L41">
         <v>6</v>
       </c>
+      <c r="M41">
+        <f>SUM(J40:L40)</f>
+        <v>0</v>
+      </c>
       <c r="Q41">
         <v>40</v>
       </c>
@@ -2314,6 +2474,10 @@
       <c r="L42">
         <v>6</v>
       </c>
+      <c r="M42">
+        <f>SUM(J41:L41)</f>
+        <v>0</v>
+      </c>
       <c r="Q42">
         <v>41</v>
       </c>
@@ -2337,6 +2501,10 @@
       <c r="L43">
         <v>6</v>
       </c>
+      <c r="M43">
+        <f>SUM(J42:L42)</f>
+        <v>0</v>
+      </c>
       <c r="Q43">
         <v>42</v>
       </c>
@@ -2354,6 +2522,10 @@
       <c r="L44">
         <v>6</v>
       </c>
+      <c r="M44">
+        <f>SUM(J43:L43)</f>
+        <v>0</v>
+      </c>
       <c r="Q44">
         <v>43</v>
       </c>
@@ -2365,6 +2537,10 @@
       <c r="F45" t="s">
         <v>150</v>
       </c>
+      <c r="M45">
+        <f>SUM(J44:L44)</f>
+        <v>0</v>
+      </c>
       <c r="Q45">
         <v>44</v>
       </c>
@@ -2376,6 +2552,10 @@
       <c r="F46" t="s">
         <v>152</v>
       </c>
+      <c r="M46">
+        <f>SUM(J45:L45)</f>
+        <v>0</v>
+      </c>
       <c r="Q46">
         <v>45</v>
       </c>
@@ -2399,6 +2579,10 @@
       <c r="K47">
         <v>9</v>
       </c>
+      <c r="M47">
+        <f>SUM(J46:L46)</f>
+        <v>0</v>
+      </c>
       <c r="Q47">
         <v>46</v>
       </c>
@@ -2416,6 +2600,10 @@
       <c r="K48">
         <v>9</v>
       </c>
+      <c r="M48">
+        <f>SUM(J47:L47)</f>
+        <v>0</v>
+      </c>
       <c r="Q48">
         <v>47</v>
       </c>
@@ -2439,6 +2627,10 @@
       <c r="K49">
         <v>9</v>
       </c>
+      <c r="M49">
+        <f>SUM(J48:L48)</f>
+        <v>0</v>
+      </c>
       <c r="Q49">
         <v>48</v>
       </c>
@@ -2468,6 +2660,10 @@
       <c r="L50">
         <v>7</v>
       </c>
+      <c r="M50">
+        <f>SUM(J49:L49)</f>
+        <v>0</v>
+      </c>
       <c r="Q50">
         <v>49</v>
       </c>
@@ -2491,6 +2687,10 @@
       <c r="L51">
         <v>7</v>
       </c>
+      <c r="M51">
+        <f>SUM(J50:L50)</f>
+        <v>0</v>
+      </c>
       <c r="Q51">
         <v>50</v>
       </c>
@@ -2514,6 +2714,10 @@
       <c r="L52">
         <v>7</v>
       </c>
+      <c r="M52">
+        <f>SUM(J51:L51)</f>
+        <v>0</v>
+      </c>
       <c r="Q52">
         <v>51</v>
       </c>
@@ -2537,6 +2741,10 @@
       <c r="L53">
         <v>7</v>
       </c>
+      <c r="M53">
+        <f>SUM(J52:L52)</f>
+        <v>0</v>
+      </c>
       <c r="Q53">
         <v>52</v>
       </c>
@@ -2554,6 +2762,10 @@
       <c r="L54">
         <v>7</v>
       </c>
+      <c r="M54">
+        <f>SUM(J53:L53)</f>
+        <v>0</v>
+      </c>
       <c r="Q54">
         <v>53</v>
       </c>
@@ -2565,6 +2777,10 @@
       <c r="F55" t="s">
         <v>170</v>
       </c>
+      <c r="M55">
+        <f>SUM(J54:L54)</f>
+        <v>0</v>
+      </c>
       <c r="Q55">
         <v>54</v>
       </c>
@@ -2582,6 +2798,10 @@
       <c r="J56">
         <v>9</v>
       </c>
+      <c r="M56">
+        <f>SUM(J55:L55)</f>
+        <v>0</v>
+      </c>
       <c r="Q56">
         <v>55</v>
       </c>
@@ -2599,6 +2819,10 @@
       <c r="J57">
         <v>9</v>
       </c>
+      <c r="M57">
+        <f>SUM(J56:L56)</f>
+        <v>0</v>
+      </c>
       <c r="Q57">
         <v>56</v>
       </c>
@@ -2616,6 +2840,10 @@
       <c r="J58">
         <v>9</v>
       </c>
+      <c r="M58">
+        <f>SUM(J57:L57)</f>
+        <v>0</v>
+      </c>
       <c r="Q58">
         <v>57</v>
       </c>
@@ -2633,6 +2861,10 @@
       <c r="J59">
         <v>9</v>
       </c>
+      <c r="M59">
+        <f>SUM(J58:L58)</f>
+        <v>0</v>
+      </c>
       <c r="Q59">
         <v>58</v>
       </c>
@@ -2656,6 +2888,10 @@
       <c r="K60">
         <v>4</v>
       </c>
+      <c r="M60">
+        <f>SUM(J59:L59)</f>
+        <v>0</v>
+      </c>
       <c r="Q60">
         <v>59</v>
       </c>
@@ -2685,6 +2921,10 @@
       <c r="L61">
         <v>5</v>
       </c>
+      <c r="M61">
+        <f>SUM(J60:L60)</f>
+        <v>0</v>
+      </c>
       <c r="Q61">
         <v>60</v>
       </c>
@@ -2708,6 +2948,10 @@
       <c r="L62">
         <v>5</v>
       </c>
+      <c r="M62">
+        <f>SUM(J61:L61)</f>
+        <v>0</v>
+      </c>
       <c r="Q62">
         <v>61</v>
       </c>
@@ -2719,6 +2963,10 @@
       <c r="F63" t="s">
         <v>186</v>
       </c>
+      <c r="M63">
+        <f>SUM(J62:L62)</f>
+        <v>0</v>
+      </c>
       <c r="Q63">
         <v>62</v>
       </c>
@@ -2730,6 +2978,10 @@
       <c r="F64" t="s">
         <v>188</v>
       </c>
+      <c r="M64">
+        <f>SUM(J63:L63)</f>
+        <v>0</v>
+      </c>
       <c r="Q64">
         <v>63</v>
       </c>
@@ -2741,6 +2993,10 @@
       <c r="F65" t="s">
         <v>190</v>
       </c>
+      <c r="M65">
+        <f>SUM(J64:L64)</f>
+        <v>0</v>
+      </c>
       <c r="Q65">
         <v>64</v>
       </c>
@@ -2752,6 +3008,10 @@
       <c r="F66" t="s">
         <v>192</v>
       </c>
+      <c r="M66">
+        <f>SUM(J65:L65)</f>
+        <v>0</v>
+      </c>
       <c r="Q66">
         <v>65</v>
       </c>
@@ -2763,6 +3023,10 @@
       <c r="F67" t="s">
         <v>194</v>
       </c>
+      <c r="M67">
+        <f>SUM(J66:L66)</f>
+        <v>0</v>
+      </c>
       <c r="Q67">
         <v>66</v>
       </c>
@@ -2780,6 +3044,10 @@
       <c r="K68">
         <v>8</v>
       </c>
+      <c r="M68">
+        <f>SUM(J67:L67)</f>
+        <v>0</v>
+      </c>
       <c r="Q68">
         <v>67</v>
       </c>
@@ -2809,6 +3077,10 @@
       <c r="L69">
         <v>10</v>
       </c>
+      <c r="M69">
+        <f>SUM(J68:L68)</f>
+        <v>0</v>
+      </c>
       <c r="Q69">
         <v>68</v>
       </c>
@@ -2838,6 +3110,10 @@
       <c r="L70">
         <v>10</v>
       </c>
+      <c r="M70">
+        <f>SUM(J69:L69)</f>
+        <v>0</v>
+      </c>
       <c r="Q70">
         <v>69</v>
       </c>
@@ -2861,6 +3137,10 @@
       <c r="L71">
         <v>10</v>
       </c>
+      <c r="M71">
+        <f>SUM(J70:L70)</f>
+        <v>0</v>
+      </c>
       <c r="Q71">
         <v>70</v>
       </c>
@@ -2890,6 +3170,10 @@
       <c r="L72">
         <v>10</v>
       </c>
+      <c r="M72">
+        <f>SUM(J71:L71)</f>
+        <v>0</v>
+      </c>
       <c r="P72" t="s">
         <v>208</v>
       </c>
@@ -2916,6 +3200,10 @@
       <c r="L73">
         <v>10</v>
       </c>
+      <c r="M73">
+        <f>SUM(J72:L72)</f>
+        <v>0</v>
+      </c>
       <c r="Q73">
         <v>72</v>
       </c>
@@ -2933,6 +3221,10 @@
       <c r="L74">
         <v>10</v>
       </c>
+      <c r="M74">
+        <f>SUM(J73:L73)</f>
+        <v>0</v>
+      </c>
       <c r="Q74">
         <v>73</v>
       </c>
@@ -2950,6 +3242,10 @@
       <c r="L75">
         <v>10</v>
       </c>
+      <c r="M75">
+        <f>SUM(J74:L74)</f>
+        <v>0</v>
+      </c>
       <c r="Q75">
         <v>74</v>
       </c>
@@ -2961,6 +3257,10 @@
       <c r="F76" t="s">
         <v>215</v>
       </c>
+      <c r="M76">
+        <f>SUM(J75:L75)</f>
+        <v>0</v>
+      </c>
       <c r="Q76">
         <v>75</v>
       </c>
@@ -2978,6 +3278,10 @@
       <c r="J77">
         <v>8</v>
       </c>
+      <c r="M77">
+        <f>SUM(J76:L76)</f>
+        <v>0</v>
+      </c>
       <c r="Q77">
         <v>76</v>
       </c>
@@ -3007,6 +3311,10 @@
       <c r="K78">
         <v>6</v>
       </c>
+      <c r="M78">
+        <f>SUM(J77:L77)</f>
+        <v>0</v>
+      </c>
       <c r="Q78">
         <v>77</v>
       </c>
@@ -3030,6 +3338,10 @@
       <c r="K79">
         <v>6</v>
       </c>
+      <c r="M79">
+        <f>SUM(J78:L78)</f>
+        <v>0</v>
+      </c>
       <c r="Q79">
         <v>78</v>
       </c>
@@ -3053,6 +3365,10 @@
       <c r="K80">
         <v>6</v>
       </c>
+      <c r="M80">
+        <f>SUM(J79:L79)</f>
+        <v>0</v>
+      </c>
       <c r="Q80">
         <v>79</v>
       </c>
@@ -3082,6 +3398,10 @@
       <c r="L81">
         <v>5</v>
       </c>
+      <c r="M81">
+        <f>SUM(J80:L80)</f>
+        <v>0</v>
+      </c>
       <c r="Q81">
         <v>80</v>
       </c>
@@ -3111,6 +3431,10 @@
       <c r="L82">
         <v>5</v>
       </c>
+      <c r="M82">
+        <f>SUM(J81:L81)</f>
+        <v>0</v>
+      </c>
       <c r="Q82">
         <v>81</v>
       </c>
@@ -3128,6 +3452,10 @@
       <c r="K83">
         <v>6</v>
       </c>
+      <c r="M83">
+        <f>SUM(J82:L82)</f>
+        <v>0</v>
+      </c>
       <c r="Q83">
         <v>82</v>
       </c>
@@ -3139,6 +3467,10 @@
       <c r="F84" t="s">
         <v>233</v>
       </c>
+      <c r="M84">
+        <f>SUM(J83:L83)</f>
+        <v>0</v>
+      </c>
       <c r="Q84">
         <v>83</v>
       </c>
@@ -3150,6 +3482,10 @@
       <c r="F85" t="s">
         <v>235</v>
       </c>
+      <c r="M85">
+        <f>SUM(J84:L84)</f>
+        <v>0</v>
+      </c>
       <c r="Q85">
         <v>84</v>
       </c>
@@ -3167,6 +3503,10 @@
       <c r="L86">
         <v>3</v>
       </c>
+      <c r="M86">
+        <f>SUM(J85:L85)</f>
+        <v>0</v>
+      </c>
       <c r="Q86">
         <v>85</v>
       </c>
@@ -3190,6 +3530,10 @@
       <c r="L87">
         <v>3</v>
       </c>
+      <c r="M87">
+        <f>SUM(J86:L86)</f>
+        <v>0</v>
+      </c>
       <c r="Q87">
         <v>86</v>
       </c>
@@ -3213,6 +3557,10 @@
       <c r="K88">
         <v>7</v>
       </c>
+      <c r="M88">
+        <f>SUM(J87:L87)</f>
+        <v>0</v>
+      </c>
       <c r="Q88">
         <v>87</v>
       </c>
@@ -3236,6 +3584,10 @@
       <c r="K89">
         <v>7</v>
       </c>
+      <c r="M89">
+        <f>SUM(J88:L88)</f>
+        <v>0</v>
+      </c>
       <c r="Q89">
         <v>88</v>
       </c>
@@ -3265,6 +3617,10 @@
       <c r="L90">
         <v>7</v>
       </c>
+      <c r="M90">
+        <f>SUM(J89:L89)</f>
+        <v>0</v>
+      </c>
       <c r="Q90">
         <v>89</v>
       </c>
@@ -3294,6 +3650,10 @@
       <c r="L91">
         <v>7</v>
       </c>
+      <c r="M91">
+        <f>SUM(J90:L90)</f>
+        <v>0</v>
+      </c>
       <c r="Q91">
         <v>90</v>
       </c>
@@ -3323,6 +3683,10 @@
       <c r="L92">
         <v>7</v>
       </c>
+      <c r="M92">
+        <f>SUM(J91:L91)</f>
+        <v>0</v>
+      </c>
       <c r="Q92">
         <v>91</v>
       </c>
@@ -3340,6 +3704,10 @@
       <c r="L93">
         <v>7</v>
       </c>
+      <c r="M93">
+        <f>SUM(J92:L92)</f>
+        <v>0</v>
+      </c>
       <c r="Q93">
         <v>92</v>
       </c>
@@ -3357,6 +3725,10 @@
       <c r="L94">
         <v>7</v>
       </c>
+      <c r="M94">
+        <f>SUM(J93:L93)</f>
+        <v>0</v>
+      </c>
       <c r="Q94">
         <v>93</v>
       </c>
@@ -3368,6 +3740,10 @@
       <c r="F95" t="s">
         <v>255</v>
       </c>
+      <c r="M95">
+        <f>SUM(J94:L94)</f>
+        <v>0</v>
+      </c>
       <c r="Q95">
         <v>94</v>
       </c>
@@ -3391,6 +3767,10 @@
       <c r="L96">
         <v>2</v>
       </c>
+      <c r="M96">
+        <f>SUM(J95:L95)</f>
+        <v>0</v>
+      </c>
       <c r="Q96">
         <v>95</v>
       </c>
@@ -3414,6 +3794,10 @@
       <c r="J97">
         <v>7</v>
       </c>
+      <c r="M97">
+        <f>SUM(J96:L96)</f>
+        <v>0</v>
+      </c>
       <c r="Q97">
         <v>96</v>
       </c>
@@ -3431,6 +3815,10 @@
       <c r="J98">
         <v>7</v>
       </c>
+      <c r="M98">
+        <f>SUM(J97:L97)</f>
+        <v>0</v>
+      </c>
       <c r="Q98">
         <v>97</v>
       </c>
@@ -3454,6 +3842,10 @@
       <c r="L99">
         <v>6</v>
       </c>
+      <c r="M99">
+        <f>SUM(J98:L98)</f>
+        <v>0</v>
+      </c>
       <c r="Q99">
         <v>98</v>
       </c>
@@ -3483,6 +3875,10 @@
       <c r="L100">
         <v>6</v>
       </c>
+      <c r="M100">
+        <f>SUM(J99:L99)</f>
+        <v>0</v>
+      </c>
       <c r="Q100">
         <v>99</v>
       </c>
@@ -3512,6 +3908,10 @@
       <c r="L101">
         <v>6</v>
       </c>
+      <c r="M101">
+        <f>SUM(J100:L100)</f>
+        <v>0</v>
+      </c>
       <c r="Q101">
         <v>100</v>
       </c>
@@ -3529,6 +3929,10 @@
       <c r="L102">
         <v>6</v>
       </c>
+      <c r="M102">
+        <f>SUM(J101:L101)</f>
+        <v>0</v>
+      </c>
       <c r="Q102">
         <v>101</v>
       </c>
@@ -3552,6 +3956,10 @@
       <c r="L103">
         <v>6</v>
       </c>
+      <c r="M103">
+        <f>SUM(J102:L102)</f>
+        <v>0</v>
+      </c>
       <c r="Q103">
         <v>102</v>
       </c>
@@ -3569,6 +3977,10 @@
       <c r="L104">
         <v>6</v>
       </c>
+      <c r="M104">
+        <f>SUM(J103:L103)</f>
+        <v>0</v>
+      </c>
       <c r="Q104">
         <v>103</v>
       </c>
@@ -3580,6 +3992,10 @@
       <c r="F105" t="s">
         <v>281</v>
       </c>
+      <c r="M105">
+        <f>SUM(J104:L104)</f>
+        <v>0</v>
+      </c>
       <c r="Q105">
         <v>104</v>
       </c>
@@ -3591,6 +4007,10 @@
       <c r="F106" t="s">
         <v>283</v>
       </c>
+      <c r="M106">
+        <f>SUM(J105:L105)</f>
+        <v>0</v>
+      </c>
       <c r="Q106">
         <v>105</v>
       </c>
@@ -3608,6 +4028,10 @@
       <c r="K107">
         <v>10</v>
       </c>
+      <c r="M107">
+        <f>SUM(J106:L106)</f>
+        <v>0</v>
+      </c>
       <c r="Q107">
         <v>106</v>
       </c>
@@ -3625,6 +4049,10 @@
       <c r="K108">
         <v>10</v>
       </c>
+      <c r="M108">
+        <f>SUM(J107:L107)</f>
+        <v>0</v>
+      </c>
       <c r="Q108">
         <v>107</v>
       </c>
@@ -3654,6 +4082,10 @@
       <c r="L109">
         <v>8</v>
       </c>
+      <c r="M109">
+        <f>SUM(J108:L108)</f>
+        <v>0</v>
+      </c>
       <c r="Q109">
         <v>108</v>
       </c>
@@ -3692,6 +4124,10 @@
       <c r="L110">
         <v>8</v>
       </c>
+      <c r="M110">
+        <f>SUM(J109:L109)</f>
+        <v>0</v>
+      </c>
       <c r="P110" t="s">
         <v>296</v>
       </c>
@@ -3718,6 +4154,10 @@
       <c r="L111">
         <v>8</v>
       </c>
+      <c r="M111">
+        <f>SUM(J110:L110)</f>
+        <v>0</v>
+      </c>
       <c r="Q111">
         <v>110</v>
       </c>
@@ -3741,6 +4181,10 @@
       <c r="L112">
         <v>8</v>
       </c>
+      <c r="M112">
+        <f>SUM(J111:L111)</f>
+        <v>0</v>
+      </c>
       <c r="Q112">
         <v>111</v>
       </c>
@@ -3764,6 +4208,10 @@
       <c r="L113">
         <v>8</v>
       </c>
+      <c r="M113">
+        <f>SUM(J112:L112)</f>
+        <v>0</v>
+      </c>
       <c r="Q113">
         <v>112</v>
       </c>
@@ -3781,6 +4229,10 @@
       <c r="L114">
         <v>8</v>
       </c>
+      <c r="M114">
+        <f>SUM(J113:L113)</f>
+        <v>0</v>
+      </c>
       <c r="Q114">
         <v>113</v>
       </c>
@@ -3792,6 +4244,10 @@
       <c r="F115" t="s">
         <v>305</v>
       </c>
+      <c r="M115">
+        <f>SUM(J114:L114)</f>
+        <v>0</v>
+      </c>
       <c r="Q115">
         <v>114</v>
       </c>
@@ -3809,6 +4265,10 @@
       <c r="J116">
         <v>10</v>
       </c>
+      <c r="M116">
+        <f>SUM(J115:L115)</f>
+        <v>0</v>
+      </c>
       <c r="Q116">
         <v>115</v>
       </c>
@@ -3826,6 +4286,10 @@
       <c r="J117">
         <v>10</v>
       </c>
+      <c r="M117">
+        <f>SUM(J116:L116)</f>
+        <v>0</v>
+      </c>
       <c r="Q117">
         <v>116</v>
       </c>
@@ -3843,6 +4307,10 @@
       <c r="J118">
         <v>10</v>
       </c>
+      <c r="M118">
+        <f>SUM(J117:L117)</f>
+        <v>0</v>
+      </c>
       <c r="Q118">
         <v>117</v>
       </c>
@@ -3869,6 +4337,10 @@
       <c r="J119">
         <v>10</v>
       </c>
+      <c r="M119">
+        <f>SUM(J118:L118)</f>
+        <v>0</v>
+      </c>
       <c r="Q119">
         <v>118</v>
       </c>
@@ -3898,6 +4370,10 @@
       <c r="L120">
         <v>1.5</v>
       </c>
+      <c r="M120">
+        <f>SUM(J119:L119)</f>
+        <v>0</v>
+      </c>
       <c r="Q120">
         <v>119</v>
       </c>
@@ -3926,6 +4402,10 @@
       </c>
       <c r="L121">
         <v>4</v>
+      </c>
+      <c r="M121">
+        <f>SUM(J120:L120)</f>
+        <v>0</v>
       </c>
       <c r="Q121">
         <v>120</v>
